--- a/files/separadas/repeat_p26.xlsx
+++ b/files/separadas/repeat_p26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="275">
   <si>
     <t>p26_nom</t>
   </si>
@@ -100,7 +100,10 @@
     <t>c3</t>
   </si>
   <si>
-    <t>nota_iniciativa</t>
+    <t>s_i</t>
+  </si>
+  <si>
+    <t>c4</t>
   </si>
   <si>
     <t>Taller metodologia COCREARE, etapa Comprender</t>
@@ -1197,13 +1200,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC97"/>
+  <dimension ref="A1:AD97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1291,22 +1294,25 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1315,13 +1321,13 @@
         <v>7</v>
       </c>
       <c r="S2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="T2" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="W2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1335,22 +1341,25 @@
       <c r="AC2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:29">
+      <c r="AD2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O3">
         <v>2</v>
       </c>
       <c r="P3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1359,13 +1368,13 @@
         <v>9</v>
       </c>
       <c r="S3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="T3" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="W3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1379,22 +1388,25 @@
       <c r="AC3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="AD3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O4">
         <v>3</v>
       </c>
       <c r="P4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1403,13 +1415,13 @@
         <v>10</v>
       </c>
       <c r="S4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="T4" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="W4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1423,22 +1435,25 @@
       <c r="AC4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="AD4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O5">
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -1447,13 +1462,13 @@
         <v>12</v>
       </c>
       <c r="S5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="T5" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="W5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1467,22 +1482,25 @@
       <c r="AC5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="AD5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O6">
         <v>5</v>
       </c>
       <c r="P6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q6">
         <v>7</v>
@@ -1491,13 +1509,13 @@
         <v>13</v>
       </c>
       <c r="S6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="T6" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="W6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1511,22 +1529,25 @@
       <c r="AC6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:29">
+      <c r="AD6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O7">
         <v>6</v>
       </c>
       <c r="P7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q7">
         <v>9</v>
@@ -1535,13 +1556,13 @@
         <v>15</v>
       </c>
       <c r="S7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T7" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="W7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1555,22 +1576,25 @@
       <c r="AC7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:29">
+      <c r="AD7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O8">
         <v>7</v>
       </c>
       <c r="P8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -1579,13 +1603,13 @@
         <v>15</v>
       </c>
       <c r="S8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T8" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="W8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1599,22 +1623,25 @@
       <c r="AC8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AD8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O9">
         <v>8</v>
       </c>
       <c r="P9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q9">
         <v>10</v>
@@ -1623,13 +1650,13 @@
         <v>16</v>
       </c>
       <c r="S9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="T9" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="W9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -1643,22 +1670,25 @@
       <c r="AC9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="AD9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O10">
         <v>9</v>
       </c>
       <c r="P10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -1667,13 +1697,13 @@
         <v>17</v>
       </c>
       <c r="S10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="T10" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="W10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -1687,22 +1717,25 @@
       <c r="AC10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="AD10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O11">
         <v>10</v>
       </c>
       <c r="P11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q11">
         <v>11</v>
@@ -1711,13 +1744,13 @@
         <v>17</v>
       </c>
       <c r="S11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="T11" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="W11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -1731,22 +1764,25 @@
       <c r="AC11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:29">
+      <c r="AD11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O12">
         <v>11</v>
       </c>
       <c r="P12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q12">
         <v>11</v>
@@ -1755,13 +1791,13 @@
         <v>17</v>
       </c>
       <c r="S12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="T12" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="W12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -1775,22 +1811,25 @@
       <c r="AC12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:29">
+      <c r="AD12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O13">
         <v>12</v>
       </c>
       <c r="P13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q13">
         <v>11</v>
@@ -1799,13 +1838,13 @@
         <v>17</v>
       </c>
       <c r="S13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="T13" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="W13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -1819,22 +1858,25 @@
       <c r="AC13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="AD13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O14">
         <v>13</v>
       </c>
       <c r="P14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q14">
         <v>11</v>
@@ -1843,13 +1885,13 @@
         <v>17</v>
       </c>
       <c r="S14" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="T14" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="W14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -1863,22 +1905,25 @@
       <c r="AC14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="AD14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O15">
         <v>14</v>
       </c>
       <c r="P15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q15">
         <v>11</v>
@@ -1887,13 +1932,13 @@
         <v>17</v>
       </c>
       <c r="S15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="T15" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="W15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -1907,22 +1952,25 @@
       <c r="AC15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29">
+      <c r="AD15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O16">
         <v>15</v>
       </c>
       <c r="P16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q16">
         <v>13</v>
@@ -1931,13 +1979,13 @@
         <v>20</v>
       </c>
       <c r="S16" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T16" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="W16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -1951,22 +1999,25 @@
       <c r="AC16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:29">
+      <c r="AD16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O17">
         <v>16</v>
       </c>
       <c r="P17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q17">
         <v>13</v>
@@ -1975,13 +2026,13 @@
         <v>20</v>
       </c>
       <c r="S17" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T17" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="W17" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -1995,22 +2046,25 @@
       <c r="AC17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:29">
+      <c r="AD17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O18">
         <v>17</v>
       </c>
       <c r="P18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q18">
         <v>16</v>
@@ -2019,13 +2073,13 @@
         <v>25</v>
       </c>
       <c r="S18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="T18" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="W18" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -2039,22 +2093,25 @@
       <c r="AC18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:29">
+      <c r="AD18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O19">
         <v>18</v>
       </c>
       <c r="P19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q19">
         <v>17</v>
@@ -2063,13 +2120,13 @@
         <v>26</v>
       </c>
       <c r="S19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="T19" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="W19" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2083,22 +2140,25 @@
       <c r="AC19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:29">
+      <c r="AD19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O20">
         <v>19</v>
       </c>
       <c r="P20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q20">
         <v>18</v>
@@ -2107,13 +2167,13 @@
         <v>27</v>
       </c>
       <c r="S20" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="T20" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="W20" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2127,22 +2187,25 @@
       <c r="AC20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:29">
+      <c r="AD20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O21">
         <v>20</v>
       </c>
       <c r="P21" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q21">
         <v>19</v>
@@ -2151,13 +2214,13 @@
         <v>30</v>
       </c>
       <c r="S21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="T21" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="W21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -2171,22 +2234,25 @@
       <c r="AC21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:29">
+      <c r="AD21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O22">
         <v>21</v>
       </c>
       <c r="P22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q22">
         <v>20</v>
@@ -2195,13 +2261,13 @@
         <v>33</v>
       </c>
       <c r="S22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="T22" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="W22" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -2215,22 +2281,25 @@
       <c r="AC22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:29">
+      <c r="AD22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O23">
         <v>22</v>
       </c>
       <c r="P23" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q23">
         <v>21</v>
@@ -2239,13 +2308,13 @@
         <v>34</v>
       </c>
       <c r="S23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="T23" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="W23" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -2259,22 +2328,25 @@
       <c r="AC23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:29">
+      <c r="AD23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O24">
         <v>23</v>
       </c>
       <c r="P24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q24">
         <v>22</v>
@@ -2283,13 +2355,13 @@
         <v>37</v>
       </c>
       <c r="S24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="T24" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="W24" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -2303,22 +2375,25 @@
       <c r="AC24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:29">
+      <c r="AD24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C25" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O25">
         <v>24</v>
       </c>
       <c r="P25" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q25">
         <v>22</v>
@@ -2327,13 +2402,13 @@
         <v>37</v>
       </c>
       <c r="S25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="T25" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="W25" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -2347,22 +2422,25 @@
       <c r="AC25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:29">
+      <c r="AD25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C26" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O26">
         <v>25</v>
       </c>
       <c r="P26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q26">
         <v>23</v>
@@ -2371,13 +2449,13 @@
         <v>38</v>
       </c>
       <c r="S26" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="T26" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="W26" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -2391,22 +2469,25 @@
       <c r="AC26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:29">
+      <c r="AD26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C27" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O27">
         <v>26</v>
       </c>
       <c r="P27" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q27">
         <v>23</v>
@@ -2415,13 +2496,13 @@
         <v>38</v>
       </c>
       <c r="S27" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="T27" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="W27" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -2435,22 +2516,25 @@
       <c r="AC27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:29">
+      <c r="AD27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O28">
         <v>27</v>
       </c>
       <c r="P28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q28">
         <v>23</v>
@@ -2459,13 +2543,13 @@
         <v>38</v>
       </c>
       <c r="S28" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="T28" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="W28" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -2479,22 +2563,25 @@
       <c r="AC28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:29">
+      <c r="AD28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C29" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O29">
         <v>28</v>
       </c>
       <c r="P29" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q29">
         <v>23</v>
@@ -2503,13 +2590,13 @@
         <v>38</v>
       </c>
       <c r="S29" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="T29" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="W29" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -2523,22 +2610,25 @@
       <c r="AC29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:29">
+      <c r="AD29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C30" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O30">
         <v>29</v>
       </c>
       <c r="P30" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q30">
         <v>24</v>
@@ -2547,13 +2637,13 @@
         <v>51</v>
       </c>
       <c r="S30" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T30" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="W30" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -2567,22 +2657,25 @@
       <c r="AC30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:29">
+      <c r="AD30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C31" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O31">
         <v>30</v>
       </c>
       <c r="P31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q31">
         <v>24</v>
@@ -2591,13 +2684,13 @@
         <v>51</v>
       </c>
       <c r="S31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T31" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="W31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -2611,22 +2704,25 @@
       <c r="AC31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:29">
+      <c r="AD31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C32" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O32">
         <v>31</v>
       </c>
       <c r="P32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q32">
         <v>24</v>
@@ -2635,13 +2731,13 @@
         <v>51</v>
       </c>
       <c r="S32" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T32" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="W32" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -2655,22 +2751,25 @@
       <c r="AC32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:29">
+      <c r="AD32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O33">
         <v>32</v>
       </c>
       <c r="P33" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q33">
         <v>24</v>
@@ -2679,13 +2778,13 @@
         <v>51</v>
       </c>
       <c r="S33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T33" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="W33" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -2699,22 +2798,25 @@
       <c r="AC33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:29">
+      <c r="AD33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C34" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O34">
         <v>33</v>
       </c>
       <c r="P34" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q34">
         <v>24</v>
@@ -2723,13 +2825,13 @@
         <v>51</v>
       </c>
       <c r="S34" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T34" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="W34" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -2743,22 +2845,25 @@
       <c r="AC34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:29">
+      <c r="AD34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C35" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O35">
         <v>34</v>
       </c>
       <c r="P35" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q35">
         <v>26</v>
@@ -2767,13 +2872,13 @@
         <v>55</v>
       </c>
       <c r="S35" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T35" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="W35" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -2787,22 +2892,25 @@
       <c r="AC35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:29">
+      <c r="AD35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C36" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O36">
         <v>35</v>
       </c>
       <c r="P36" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q36">
         <v>27</v>
@@ -2811,13 +2919,13 @@
         <v>56</v>
       </c>
       <c r="S36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="T36" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="W36" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -2831,22 +2939,25 @@
       <c r="AC36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:29">
+      <c r="AD36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O37">
         <v>36</v>
       </c>
       <c r="P37" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q37">
         <v>28</v>
@@ -2855,13 +2966,13 @@
         <v>57</v>
       </c>
       <c r="S37" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="T37" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="W37" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -2875,22 +2986,25 @@
       <c r="AC37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:29">
+      <c r="AD37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O38">
         <v>37</v>
       </c>
       <c r="P38" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q38">
         <v>28</v>
@@ -2899,13 +3013,13 @@
         <v>57</v>
       </c>
       <c r="S38" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="T38" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="W38" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -2919,22 +3033,25 @@
       <c r="AC38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:29">
+      <c r="AD38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C39" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O39">
         <v>38</v>
       </c>
       <c r="P39" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q39">
         <v>28</v>
@@ -2943,13 +3060,13 @@
         <v>57</v>
       </c>
       <c r="S39" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="T39" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="W39" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -2963,22 +3080,25 @@
       <c r="AC39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:29">
+      <c r="AD39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C40" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O40">
         <v>39</v>
       </c>
       <c r="P40" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q40">
         <v>28</v>
@@ -2987,13 +3107,13 @@
         <v>57</v>
       </c>
       <c r="S40" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="T40" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="W40" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -3007,22 +3127,25 @@
       <c r="AC40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:29">
+      <c r="AD40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C41" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O41">
         <v>40</v>
       </c>
       <c r="P41" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q41">
         <v>29</v>
@@ -3031,13 +3154,13 @@
         <v>58</v>
       </c>
       <c r="S41" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T41" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="W41" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -3051,22 +3174,25 @@
       <c r="AC41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:29">
+      <c r="AD41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O42">
         <v>41</v>
       </c>
       <c r="P42" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q42">
         <v>30</v>
@@ -3075,13 +3201,13 @@
         <v>59</v>
       </c>
       <c r="S42" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="T42" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="W42" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -3095,22 +3221,25 @@
       <c r="AC42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:29">
+      <c r="AD42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C43" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O43">
         <v>42</v>
       </c>
       <c r="P43" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q43">
         <v>30</v>
@@ -3119,13 +3248,13 @@
         <v>59</v>
       </c>
       <c r="S43" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="T43" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="W43" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -3139,22 +3268,25 @@
       <c r="AC43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:29">
+      <c r="AD43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C44" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O44">
         <v>43</v>
       </c>
       <c r="P44" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q44">
         <v>30</v>
@@ -3163,13 +3295,13 @@
         <v>59</v>
       </c>
       <c r="S44" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="T44" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="W44" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -3183,22 +3315,25 @@
       <c r="AC44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:29">
+      <c r="AD44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B45" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C45" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O45">
         <v>44</v>
       </c>
       <c r="P45" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q45">
         <v>31</v>
@@ -3207,13 +3342,13 @@
         <v>60</v>
       </c>
       <c r="S45" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="T45" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="W45" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -3227,22 +3362,25 @@
       <c r="AC45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:29">
+      <c r="AD45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C46" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O46">
         <v>45</v>
       </c>
       <c r="P46" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q46">
         <v>31</v>
@@ -3251,13 +3389,13 @@
         <v>60</v>
       </c>
       <c r="S46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="T46" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="W46" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -3271,22 +3409,25 @@
       <c r="AC46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:29">
+      <c r="AD46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B47" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C47" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O47">
         <v>46</v>
       </c>
       <c r="P47" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q47">
         <v>32</v>
@@ -3295,13 +3436,13 @@
         <v>61</v>
       </c>
       <c r="S47" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="T47" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="W47" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -3315,22 +3456,25 @@
       <c r="AC47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:29">
+      <c r="AD47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B48" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C48" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O48">
         <v>47</v>
       </c>
       <c r="P48" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q48">
         <v>33</v>
@@ -3339,13 +3483,13 @@
         <v>63</v>
       </c>
       <c r="S48" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T48" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="W48" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -3359,22 +3503,25 @@
       <c r="AC48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:29">
+      <c r="AD48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B49" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C49" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O49">
         <v>48</v>
       </c>
       <c r="P49" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q49">
         <v>33</v>
@@ -3383,13 +3530,13 @@
         <v>63</v>
       </c>
       <c r="S49" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T49" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="W49" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -3403,22 +3550,25 @@
       <c r="AC49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:29">
+      <c r="AD49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B50" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C50" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O50">
         <v>49</v>
       </c>
       <c r="P50" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q50">
         <v>33</v>
@@ -3427,13 +3577,13 @@
         <v>63</v>
       </c>
       <c r="S50" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T50" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="W50" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -3447,22 +3597,25 @@
       <c r="AC50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:29">
+      <c r="AD50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B51" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O51">
         <v>50</v>
       </c>
       <c r="P51" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q51">
         <v>33</v>
@@ -3471,13 +3624,13 @@
         <v>63</v>
       </c>
       <c r="S51" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T51" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="W51" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -3491,22 +3644,25 @@
       <c r="AC51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:29">
+      <c r="AD51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B52" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C52" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O52">
         <v>51</v>
       </c>
       <c r="P52" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q52">
         <v>34</v>
@@ -3515,13 +3671,13 @@
         <v>64</v>
       </c>
       <c r="S52" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T52" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="W52" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -3535,22 +3691,25 @@
       <c r="AC52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:29">
+      <c r="AD52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B53" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C53" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O53">
         <v>52</v>
       </c>
       <c r="P53" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q53">
         <v>36</v>
@@ -3559,13 +3718,13 @@
         <v>77</v>
       </c>
       <c r="S53" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="T53" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="W53" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -3579,22 +3738,25 @@
       <c r="AC53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:29">
+      <c r="AD53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B54" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C54" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O54">
         <v>53</v>
       </c>
       <c r="P54" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q54">
         <v>37</v>
@@ -3603,13 +3765,13 @@
         <v>78</v>
       </c>
       <c r="S54" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="T54" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="W54" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -3623,22 +3785,25 @@
       <c r="AC54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:29">
+      <c r="AD54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B55" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C55" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O55">
         <v>54</v>
       </c>
       <c r="P55" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q55">
         <v>37</v>
@@ -3647,13 +3812,13 @@
         <v>78</v>
       </c>
       <c r="S55" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="T55" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="W55" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -3667,22 +3832,25 @@
       <c r="AC55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:29">
+      <c r="AD55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B56" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C56" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O56">
         <v>55</v>
       </c>
       <c r="P56" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q56">
         <v>38</v>
@@ -3691,13 +3859,13 @@
         <v>80</v>
       </c>
       <c r="S56" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="T56" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="W56" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -3711,22 +3879,25 @@
       <c r="AC56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:29">
+      <c r="AD56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30">
       <c r="A57" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B57" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C57" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O57">
         <v>56</v>
       </c>
       <c r="P57" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q57">
         <v>39</v>
@@ -3735,13 +3906,13 @@
         <v>81</v>
       </c>
       <c r="S57" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="T57" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="W57" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -3755,22 +3926,25 @@
       <c r="AC57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:29">
+      <c r="AD57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30">
       <c r="A58" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B58" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C58" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O58">
         <v>57</v>
       </c>
       <c r="P58" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q58">
         <v>39</v>
@@ -3779,13 +3953,13 @@
         <v>81</v>
       </c>
       <c r="S58" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="T58" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="W58" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -3799,22 +3973,25 @@
       <c r="AC58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:29">
+      <c r="AD58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30">
       <c r="A59" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C59" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O59">
         <v>58</v>
       </c>
       <c r="P59" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q59">
         <v>39</v>
@@ -3823,13 +4000,13 @@
         <v>81</v>
       </c>
       <c r="S59" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="T59" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="W59" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -3843,22 +4020,25 @@
       <c r="AC59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:29">
+      <c r="AD59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30">
       <c r="A60" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B60" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C60" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O60">
         <v>59</v>
       </c>
       <c r="P60" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q60">
         <v>41</v>
@@ -3867,13 +4047,13 @@
         <v>83</v>
       </c>
       <c r="S60" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="T60" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="W60" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -3887,22 +4067,25 @@
       <c r="AC60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:29">
+      <c r="AD60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30">
       <c r="A61" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B61" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C61" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O61">
         <v>60</v>
       </c>
       <c r="P61" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q61">
         <v>41</v>
@@ -3911,13 +4094,13 @@
         <v>83</v>
       </c>
       <c r="S61" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="T61" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="W61" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -3931,22 +4114,25 @@
       <c r="AC61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:29">
+      <c r="AD61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30">
       <c r="A62" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B62" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C62" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O62">
         <v>61</v>
       </c>
       <c r="P62" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q62">
         <v>42</v>
@@ -3955,13 +4141,13 @@
         <v>84</v>
       </c>
       <c r="S62" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="T62" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="W62" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -3975,22 +4161,25 @@
       <c r="AC62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:29">
+      <c r="AD62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30">
       <c r="A63" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B63" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C63" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O63">
         <v>62</v>
       </c>
       <c r="P63" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q63">
         <v>42</v>
@@ -3999,13 +4188,13 @@
         <v>84</v>
       </c>
       <c r="S63" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="T63" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="W63" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -4019,22 +4208,25 @@
       <c r="AC63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:29">
+      <c r="AD63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30">
       <c r="A64" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B64" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C64" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O64">
         <v>63</v>
       </c>
       <c r="P64" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q64">
         <v>44</v>
@@ -4043,13 +4235,13 @@
         <v>87</v>
       </c>
       <c r="S64" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="T64" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="W64" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -4063,22 +4255,25 @@
       <c r="AC64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:29">
+      <c r="AD64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B65" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C65" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O65">
         <v>64</v>
       </c>
       <c r="P65" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q65">
         <v>45</v>
@@ -4087,13 +4282,13 @@
         <v>88</v>
       </c>
       <c r="S65" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="T65" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="W65" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -4107,22 +4302,25 @@
       <c r="AC65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:29">
+      <c r="AD65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B66" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C66" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O66">
         <v>65</v>
       </c>
       <c r="P66" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q66">
         <v>45</v>
@@ -4131,13 +4329,13 @@
         <v>88</v>
       </c>
       <c r="S66" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="T66" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="W66" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z66">
         <v>0</v>
@@ -4151,22 +4349,25 @@
       <c r="AC66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:29">
+      <c r="AD66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B67" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C67" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O67">
         <v>66</v>
       </c>
       <c r="P67" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q67">
         <v>46</v>
@@ -4175,13 +4376,13 @@
         <v>90</v>
       </c>
       <c r="S67" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="T67" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="W67" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z67">
         <v>0</v>
@@ -4195,22 +4396,25 @@
       <c r="AC67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:29">
+      <c r="AD67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30">
       <c r="A68" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B68" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C68" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O68">
         <v>67</v>
       </c>
       <c r="P68" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q68">
         <v>46</v>
@@ -4219,13 +4423,13 @@
         <v>90</v>
       </c>
       <c r="S68" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="T68" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="W68" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z68">
         <v>0</v>
@@ -4239,22 +4443,25 @@
       <c r="AC68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:29">
+      <c r="AD68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30">
       <c r="A69" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B69" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C69" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O69">
         <v>68</v>
       </c>
       <c r="P69" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q69">
         <v>46</v>
@@ -4263,13 +4470,13 @@
         <v>90</v>
       </c>
       <c r="S69" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="T69" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="W69" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z69">
         <v>0</v>
@@ -4283,22 +4490,25 @@
       <c r="AC69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:29">
+      <c r="AD69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30">
       <c r="A70" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B70" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C70" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O70">
         <v>69</v>
       </c>
       <c r="P70" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q70">
         <v>48</v>
@@ -4307,13 +4517,13 @@
         <v>92</v>
       </c>
       <c r="S70" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="T70" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="W70" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z70">
         <v>0</v>
@@ -4327,22 +4537,25 @@
       <c r="AC70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:29">
+      <c r="AD70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30">
       <c r="A71" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B71" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C71" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O71">
         <v>70</v>
       </c>
       <c r="P71" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q71">
         <v>49</v>
@@ -4351,13 +4564,13 @@
         <v>93</v>
       </c>
       <c r="S71" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="T71" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="W71" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z71">
         <v>0</v>
@@ -4371,22 +4584,25 @@
       <c r="AC71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:29">
+      <c r="AD71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30">
       <c r="A72" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B72" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C72" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O72">
         <v>71</v>
       </c>
       <c r="P72" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q72">
         <v>50</v>
@@ -4395,13 +4611,13 @@
         <v>94</v>
       </c>
       <c r="S72" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="T72" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="W72" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z72">
         <v>0</v>
@@ -4415,22 +4631,25 @@
       <c r="AC72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:29">
+      <c r="AD72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30">
       <c r="A73" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B73" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C73" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O73">
         <v>72</v>
       </c>
       <c r="P73" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q73">
         <v>50</v>
@@ -4439,13 +4658,13 @@
         <v>94</v>
       </c>
       <c r="S73" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="T73" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="W73" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z73">
         <v>0</v>
@@ -4459,22 +4678,25 @@
       <c r="AC73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:29">
+      <c r="AD73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30">
       <c r="A74" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B74" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C74" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O74">
         <v>73</v>
       </c>
       <c r="P74" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q74">
         <v>50</v>
@@ -4483,13 +4705,13 @@
         <v>94</v>
       </c>
       <c r="S74" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="T74" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="W74" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -4503,22 +4725,25 @@
       <c r="AC74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:29">
+      <c r="AD74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30">
       <c r="A75" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B75" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C75" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O75">
         <v>74</v>
       </c>
       <c r="P75" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q75">
         <v>51</v>
@@ -4527,13 +4752,13 @@
         <v>95</v>
       </c>
       <c r="S75" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="T75" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="W75" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z75">
         <v>0</v>
@@ -4547,22 +4772,25 @@
       <c r="AC75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:29">
+      <c r="AD75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30">
       <c r="A76" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B76" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C76" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O76">
         <v>75</v>
       </c>
       <c r="P76" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q76">
         <v>51</v>
@@ -4571,13 +4799,13 @@
         <v>95</v>
       </c>
       <c r="S76" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="T76" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="W76" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z76">
         <v>0</v>
@@ -4591,22 +4819,25 @@
       <c r="AC76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:29">
+      <c r="AD76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30">
       <c r="A77" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B77" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C77" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O77">
         <v>76</v>
       </c>
       <c r="P77" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q77">
         <v>51</v>
@@ -4615,13 +4846,13 @@
         <v>95</v>
       </c>
       <c r="S77" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="T77" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="W77" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -4635,22 +4866,25 @@
       <c r="AC77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:29">
+      <c r="AD77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30">
       <c r="A78" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B78" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C78" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O78">
         <v>77</v>
       </c>
       <c r="P78" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q78">
         <v>52</v>
@@ -4659,13 +4893,13 @@
         <v>96</v>
       </c>
       <c r="S78" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="T78" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="W78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z78">
         <v>0</v>
@@ -4679,22 +4913,25 @@
       <c r="AC78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:29">
+      <c r="AD78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30">
       <c r="A79" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B79" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C79" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O79">
         <v>78</v>
       </c>
       <c r="P79" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q79">
         <v>53</v>
@@ -4703,13 +4940,13 @@
         <v>98</v>
       </c>
       <c r="S79" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="T79" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="W79" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z79">
         <v>0</v>
@@ -4723,22 +4960,25 @@
       <c r="AC79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:29">
+      <c r="AD79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30">
       <c r="A80" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B80" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C80" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O80">
         <v>79</v>
       </c>
       <c r="P80" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q80">
         <v>54</v>
@@ -4747,13 +4987,13 @@
         <v>99</v>
       </c>
       <c r="S80" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="T80" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="W80" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z80">
         <v>0</v>
@@ -4767,22 +5007,25 @@
       <c r="AC80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:29">
+      <c r="AD80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30">
       <c r="A81" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B81" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C81" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O81">
         <v>80</v>
       </c>
       <c r="P81" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q81">
         <v>55</v>
@@ -4791,13 +5034,13 @@
         <v>100</v>
       </c>
       <c r="S81" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="T81" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="W81" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -4811,22 +5054,25 @@
       <c r="AC81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:29">
+      <c r="AD81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30">
       <c r="A82" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B82" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C82" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O82">
         <v>81</v>
       </c>
       <c r="P82" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q82">
         <v>55</v>
@@ -4835,13 +5081,13 @@
         <v>100</v>
       </c>
       <c r="S82" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="T82" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="W82" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z82">
         <v>0</v>
@@ -4855,22 +5101,25 @@
       <c r="AC82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:29">
+      <c r="AD82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30">
       <c r="A83" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B83" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C83" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O83">
         <v>82</v>
       </c>
       <c r="P83" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q83">
         <v>57</v>
@@ -4879,13 +5128,13 @@
         <v>102</v>
       </c>
       <c r="S83" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="T83" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="W83" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z83">
         <v>0</v>
@@ -4899,22 +5148,25 @@
       <c r="AC83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:29">
+      <c r="AD83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30">
       <c r="A84" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B84" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C84" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O84">
         <v>83</v>
       </c>
       <c r="P84" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q84">
         <v>59</v>
@@ -4923,13 +5175,13 @@
         <v>104</v>
       </c>
       <c r="S84" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="T84" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="W84" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z84">
         <v>0</v>
@@ -4943,22 +5195,25 @@
       <c r="AC84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:29">
+      <c r="AD84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30">
       <c r="A85" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B85" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C85" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O85">
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q85">
         <v>60</v>
@@ -4967,13 +5222,13 @@
         <v>105</v>
       </c>
       <c r="S85" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="T85" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="W85" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z85">
         <v>0</v>
@@ -4987,22 +5242,25 @@
       <c r="AC85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:29">
+      <c r="AD85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30">
       <c r="A86" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B86" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C86" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O86">
         <v>85</v>
       </c>
       <c r="P86" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q86">
         <v>61</v>
@@ -5011,13 +5269,13 @@
         <v>106</v>
       </c>
       <c r="S86" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="T86" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="W86" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z86">
         <v>0</v>
@@ -5031,22 +5289,25 @@
       <c r="AC86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:29">
+      <c r="AD86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30">
       <c r="A87" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B87" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C87" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O87">
         <v>86</v>
       </c>
       <c r="P87" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q87">
         <v>65</v>
@@ -5055,13 +5316,13 @@
         <v>111</v>
       </c>
       <c r="S87" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="T87" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="W87" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z87">
         <v>0</v>
@@ -5075,22 +5336,25 @@
       <c r="AC87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:29">
+      <c r="AD87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30">
       <c r="A88" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B88" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C88" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O88">
         <v>87</v>
       </c>
       <c r="P88" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q88">
         <v>68</v>
@@ -5099,13 +5363,13 @@
         <v>115</v>
       </c>
       <c r="S88" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="T88" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="W88" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z88">
         <v>0</v>
@@ -5119,22 +5383,25 @@
       <c r="AC88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:29">
+      <c r="AD88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30">
       <c r="A89" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B89" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C89" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O89">
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q89">
         <v>71</v>
@@ -5143,13 +5410,13 @@
         <v>119</v>
       </c>
       <c r="S89" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="T89" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W89" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z89">
         <v>0</v>
@@ -5163,22 +5430,25 @@
       <c r="AC89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:29">
+      <c r="AD89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30">
       <c r="A90" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B90" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C90" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O90">
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q90">
         <v>71</v>
@@ -5187,13 +5457,13 @@
         <v>119</v>
       </c>
       <c r="S90" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="T90" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W90" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z90">
         <v>0</v>
@@ -5207,22 +5477,25 @@
       <c r="AC90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:29">
+      <c r="AD90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30">
       <c r="A91" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B91" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C91" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O91">
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q91">
         <v>71</v>
@@ -5231,13 +5504,13 @@
         <v>119</v>
       </c>
       <c r="S91" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="T91" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W91" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z91">
         <v>0</v>
@@ -5251,22 +5524,25 @@
       <c r="AC91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:29">
+      <c r="AD91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30">
       <c r="A92" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B92" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C92" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O92">
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q92">
         <v>71</v>
@@ -5275,13 +5551,13 @@
         <v>119</v>
       </c>
       <c r="S92" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="T92" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W92" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z92">
         <v>0</v>
@@ -5295,22 +5571,25 @@
       <c r="AC92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:29">
+      <c r="AD92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30">
       <c r="A93" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B93" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C93" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O93">
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q93">
         <v>71</v>
@@ -5319,13 +5598,13 @@
         <v>119</v>
       </c>
       <c r="S93" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="T93" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W93" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -5339,22 +5618,25 @@
       <c r="AC93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:29">
+      <c r="AD93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30">
       <c r="A94" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B94" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C94" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O94">
         <v>93</v>
       </c>
       <c r="P94" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q94">
         <v>71</v>
@@ -5363,13 +5645,13 @@
         <v>119</v>
       </c>
       <c r="S94" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="T94" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W94" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z94">
         <v>0</v>
@@ -5383,22 +5665,25 @@
       <c r="AC94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:29">
+      <c r="AD94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30">
       <c r="A95" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B95" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C95" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O95">
         <v>94</v>
       </c>
       <c r="P95" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q95">
         <v>71</v>
@@ -5407,13 +5692,13 @@
         <v>119</v>
       </c>
       <c r="S95" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="T95" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W95" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z95">
         <v>0</v>
@@ -5427,22 +5712,25 @@
       <c r="AC95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:29">
+      <c r="AD95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30">
       <c r="A96" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B96" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C96" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O96">
         <v>95</v>
       </c>
       <c r="P96" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q96">
         <v>71</v>
@@ -5451,13 +5739,13 @@
         <v>119</v>
       </c>
       <c r="S96" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="T96" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W96" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -5471,22 +5759,25 @@
       <c r="AC96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:29">
+      <c r="AD96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30">
       <c r="A97" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B97" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C97" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O97">
         <v>96</v>
       </c>
       <c r="P97" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q97">
         <v>71</v>
@@ -5495,13 +5786,13 @@
         <v>119</v>
       </c>
       <c r="S97" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="T97" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W97" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z97">
         <v>0</v>
@@ -5513,6 +5804,9 @@
         <v>0</v>
       </c>
       <c r="AC97">
+        <v>0</v>
+      </c>
+      <c r="AD97">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p26.xlsx
+++ b/files/separadas/repeat_p26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="276">
   <si>
     <t>p26_nom</t>
   </si>
@@ -106,6 +106,9 @@
     <t>c4</t>
   </si>
   <si>
+    <t>nota_iniciativa</t>
+  </si>
+  <si>
     <t>Taller metodologia COCREARE, etapa Comprender</t>
   </si>
   <si>
@@ -676,7 +679,7 @@
     <t>Fue una jornada de integración y de trabajo colectivo en torno a la apropiación del trabajo institucional.</t>
   </si>
   <si>
-    <t>p26_rec_bin_1</t>
+    <t>Si</t>
   </si>
   <si>
     <t>Índice de Innovación Pública 2023</t>
@@ -1200,13 +1203,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD97"/>
+  <dimension ref="A1:AE97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1297,22 +1300,25 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:30">
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1321,13 +1327,13 @@
         <v>7</v>
       </c>
       <c r="S2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="T2" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="W2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1344,22 +1350,25 @@
       <c r="AD2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:30">
+      <c r="AE2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O3">
         <v>2</v>
       </c>
       <c r="P3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1368,13 +1377,13 @@
         <v>9</v>
       </c>
       <c r="S3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="T3" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="W3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1391,22 +1400,25 @@
       <c r="AD3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="AE3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O4">
         <v>3</v>
       </c>
       <c r="P4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1415,13 +1427,13 @@
         <v>10</v>
       </c>
       <c r="S4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="T4" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="W4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1438,22 +1450,25 @@
       <c r="AD4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="AE4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O5">
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -1462,13 +1477,13 @@
         <v>12</v>
       </c>
       <c r="S5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="T5" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="W5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1485,22 +1500,25 @@
       <c r="AD5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:30">
+      <c r="AE5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O6">
         <v>5</v>
       </c>
       <c r="P6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q6">
         <v>7</v>
@@ -1509,13 +1527,13 @@
         <v>13</v>
       </c>
       <c r="S6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T6" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="W6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1532,22 +1550,25 @@
       <c r="AD6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:30">
+      <c r="AE6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O7">
         <v>6</v>
       </c>
       <c r="P7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q7">
         <v>9</v>
@@ -1556,13 +1577,13 @@
         <v>15</v>
       </c>
       <c r="S7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="T7" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="W7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1579,22 +1600,25 @@
       <c r="AD7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:30">
+      <c r="AE7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O8">
         <v>7</v>
       </c>
       <c r="P8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -1603,13 +1627,13 @@
         <v>15</v>
       </c>
       <c r="S8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="T8" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="W8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1626,22 +1650,25 @@
       <c r="AD8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30">
+      <c r="AE8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O9">
         <v>8</v>
       </c>
       <c r="P9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q9">
         <v>10</v>
@@ -1650,13 +1677,13 @@
         <v>16</v>
       </c>
       <c r="S9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="T9" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="W9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -1673,22 +1700,25 @@
       <c r="AD9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:30">
+      <c r="AE9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O10">
         <v>9</v>
       </c>
       <c r="P10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -1697,13 +1727,13 @@
         <v>17</v>
       </c>
       <c r="S10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T10" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="W10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -1720,22 +1750,25 @@
       <c r="AD10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:30">
+      <c r="AE10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O11">
         <v>10</v>
       </c>
       <c r="P11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q11">
         <v>11</v>
@@ -1744,13 +1777,13 @@
         <v>17</v>
       </c>
       <c r="S11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T11" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="W11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -1767,22 +1800,25 @@
       <c r="AD11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:30">
+      <c r="AE11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O12">
         <v>11</v>
       </c>
       <c r="P12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q12">
         <v>11</v>
@@ -1791,13 +1827,13 @@
         <v>17</v>
       </c>
       <c r="S12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T12" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="W12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -1814,22 +1850,25 @@
       <c r="AD12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:30">
+      <c r="AE12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O13">
         <v>12</v>
       </c>
       <c r="P13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q13">
         <v>11</v>
@@ -1838,13 +1877,13 @@
         <v>17</v>
       </c>
       <c r="S13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T13" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="W13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -1861,22 +1900,25 @@
       <c r="AD13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30">
+      <c r="AE13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O14">
         <v>13</v>
       </c>
       <c r="P14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q14">
         <v>11</v>
@@ -1885,13 +1927,13 @@
         <v>17</v>
       </c>
       <c r="S14" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T14" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="W14" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -1908,22 +1950,25 @@
       <c r="AD14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30">
+      <c r="AE14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O15">
         <v>14</v>
       </c>
       <c r="P15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q15">
         <v>11</v>
@@ -1932,13 +1977,13 @@
         <v>17</v>
       </c>
       <c r="S15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T15" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="W15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -1955,22 +2000,25 @@
       <c r="AD15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30">
+      <c r="AE15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O16">
         <v>15</v>
       </c>
       <c r="P16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q16">
         <v>13</v>
@@ -1979,13 +2027,13 @@
         <v>20</v>
       </c>
       <c r="S16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="T16" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="W16" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2002,22 +2050,25 @@
       <c r="AD16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:30">
+      <c r="AE16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O17">
         <v>16</v>
       </c>
       <c r="P17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q17">
         <v>13</v>
@@ -2026,13 +2077,13 @@
         <v>20</v>
       </c>
       <c r="S17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="T17" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="W17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -2049,22 +2100,25 @@
       <c r="AD17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:30">
+      <c r="AE17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O18">
         <v>17</v>
       </c>
       <c r="P18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q18">
         <v>16</v>
@@ -2073,13 +2127,13 @@
         <v>25</v>
       </c>
       <c r="S18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="T18" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="W18" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -2096,22 +2150,25 @@
       <c r="AD18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:30">
+      <c r="AE18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O19">
         <v>18</v>
       </c>
       <c r="P19" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q19">
         <v>17</v>
@@ -2120,13 +2177,13 @@
         <v>26</v>
       </c>
       <c r="S19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="T19" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="W19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2143,22 +2200,25 @@
       <c r="AD19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:30">
+      <c r="AE19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O20">
         <v>19</v>
       </c>
       <c r="P20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q20">
         <v>18</v>
@@ -2167,13 +2227,13 @@
         <v>27</v>
       </c>
       <c r="S20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="T20" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="W20" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2190,22 +2250,25 @@
       <c r="AD20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:30">
+      <c r="AE20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C21" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O21">
         <v>20</v>
       </c>
       <c r="P21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q21">
         <v>19</v>
@@ -2214,13 +2277,13 @@
         <v>30</v>
       </c>
       <c r="S21" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="T21" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="W21" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -2237,22 +2300,25 @@
       <c r="AD21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:30">
+      <c r="AE21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O22">
         <v>21</v>
       </c>
       <c r="P22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q22">
         <v>20</v>
@@ -2261,13 +2327,13 @@
         <v>33</v>
       </c>
       <c r="S22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="T22" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="W22" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -2284,22 +2350,25 @@
       <c r="AD22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:30">
+      <c r="AE22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C23" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O23">
         <v>22</v>
       </c>
       <c r="P23" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q23">
         <v>21</v>
@@ -2308,13 +2377,13 @@
         <v>34</v>
       </c>
       <c r="S23" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="T23" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="W23" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -2331,22 +2400,25 @@
       <c r="AD23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:30">
+      <c r="AE23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O24">
         <v>23</v>
       </c>
       <c r="P24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q24">
         <v>22</v>
@@ -2355,13 +2427,13 @@
         <v>37</v>
       </c>
       <c r="S24" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="T24" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="W24" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -2378,22 +2450,25 @@
       <c r="AD24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:30">
+      <c r="AE24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C25" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O25">
         <v>24</v>
       </c>
       <c r="P25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q25">
         <v>22</v>
@@ -2402,13 +2477,13 @@
         <v>37</v>
       </c>
       <c r="S25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="T25" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="W25" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -2425,22 +2500,25 @@
       <c r="AD25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:30">
+      <c r="AE25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O26">
         <v>25</v>
       </c>
       <c r="P26" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q26">
         <v>23</v>
@@ -2449,13 +2527,13 @@
         <v>38</v>
       </c>
       <c r="S26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T26" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="W26" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -2472,22 +2550,25 @@
       <c r="AD26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:30">
+      <c r="AE26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C27" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O27">
         <v>26</v>
       </c>
       <c r="P27" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q27">
         <v>23</v>
@@ -2496,13 +2577,13 @@
         <v>38</v>
       </c>
       <c r="S27" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T27" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="W27" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -2519,22 +2600,25 @@
       <c r="AD27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:30">
+      <c r="AE27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O28">
         <v>27</v>
       </c>
       <c r="P28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q28">
         <v>23</v>
@@ -2543,13 +2627,13 @@
         <v>38</v>
       </c>
       <c r="S28" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T28" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="W28" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -2566,22 +2650,25 @@
       <c r="AD28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:30">
+      <c r="AE28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C29" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O29">
         <v>28</v>
       </c>
       <c r="P29" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q29">
         <v>23</v>
@@ -2590,13 +2677,13 @@
         <v>38</v>
       </c>
       <c r="S29" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T29" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="W29" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -2613,22 +2700,25 @@
       <c r="AD29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:30">
+      <c r="AE29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C30" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O30">
         <v>29</v>
       </c>
       <c r="P30" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q30">
         <v>24</v>
@@ -2637,13 +2727,13 @@
         <v>51</v>
       </c>
       <c r="S30" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T30" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="W30" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -2660,22 +2750,25 @@
       <c r="AD30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:30">
+      <c r="AE30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O31">
         <v>30</v>
       </c>
       <c r="P31" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q31">
         <v>24</v>
@@ -2684,13 +2777,13 @@
         <v>51</v>
       </c>
       <c r="S31" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T31" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="W31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -2707,22 +2800,25 @@
       <c r="AD31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:30">
+      <c r="AE31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O32">
         <v>31</v>
       </c>
       <c r="P32" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q32">
         <v>24</v>
@@ -2731,13 +2827,13 @@
         <v>51</v>
       </c>
       <c r="S32" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T32" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="W32" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -2754,22 +2850,25 @@
       <c r="AD32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:30">
+      <c r="AE32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C33" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O33">
         <v>32</v>
       </c>
       <c r="P33" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q33">
         <v>24</v>
@@ -2778,13 +2877,13 @@
         <v>51</v>
       </c>
       <c r="S33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T33" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="W33" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -2801,22 +2900,25 @@
       <c r="AD33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:30">
+      <c r="AE33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C34" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O34">
         <v>33</v>
       </c>
       <c r="P34" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q34">
         <v>24</v>
@@ -2825,13 +2927,13 @@
         <v>51</v>
       </c>
       <c r="S34" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T34" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="W34" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -2848,22 +2950,25 @@
       <c r="AD34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:30">
+      <c r="AE34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C35" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O35">
         <v>34</v>
       </c>
       <c r="P35" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q35">
         <v>26</v>
@@ -2872,13 +2977,13 @@
         <v>55</v>
       </c>
       <c r="S35" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="T35" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="W35" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -2895,22 +3000,25 @@
       <c r="AD35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:30">
+      <c r="AE35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C36" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O36">
         <v>35</v>
       </c>
       <c r="P36" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q36">
         <v>27</v>
@@ -2919,13 +3027,13 @@
         <v>56</v>
       </c>
       <c r="S36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="T36" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="W36" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -2942,22 +3050,25 @@
       <c r="AD36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:30">
+      <c r="AE36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C37" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O37">
         <v>36</v>
       </c>
       <c r="P37" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q37">
         <v>28</v>
@@ -2966,13 +3077,13 @@
         <v>57</v>
       </c>
       <c r="S37" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T37" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="W37" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -2989,22 +3100,25 @@
       <c r="AD37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:30">
+      <c r="AE37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C38" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O38">
         <v>37</v>
       </c>
       <c r="P38" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q38">
         <v>28</v>
@@ -3013,13 +3127,13 @@
         <v>57</v>
       </c>
       <c r="S38" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T38" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="W38" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -3036,22 +3150,25 @@
       <c r="AD38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:30">
+      <c r="AE38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C39" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O39">
         <v>38</v>
       </c>
       <c r="P39" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q39">
         <v>28</v>
@@ -3060,13 +3177,13 @@
         <v>57</v>
       </c>
       <c r="S39" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T39" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="W39" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -3083,22 +3200,25 @@
       <c r="AD39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:30">
+      <c r="AE39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C40" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O40">
         <v>39</v>
       </c>
       <c r="P40" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q40">
         <v>28</v>
@@ -3107,13 +3227,13 @@
         <v>57</v>
       </c>
       <c r="S40" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T40" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="W40" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -3130,22 +3250,25 @@
       <c r="AD40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:30">
+      <c r="AE40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C41" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O41">
         <v>40</v>
       </c>
       <c r="P41" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q41">
         <v>29</v>
@@ -3154,13 +3277,13 @@
         <v>58</v>
       </c>
       <c r="S41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="T41" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="W41" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -3177,22 +3300,25 @@
       <c r="AD41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:30">
+      <c r="AE41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C42" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O42">
         <v>41</v>
       </c>
       <c r="P42" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q42">
         <v>30</v>
@@ -3201,13 +3327,13 @@
         <v>59</v>
       </c>
       <c r="S42" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="T42" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="W42" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -3224,22 +3350,25 @@
       <c r="AD42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:30">
+      <c r="AE42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B43" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C43" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O43">
         <v>42</v>
       </c>
       <c r="P43" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q43">
         <v>30</v>
@@ -3248,13 +3377,13 @@
         <v>59</v>
       </c>
       <c r="S43" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="T43" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="W43" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -3271,22 +3400,25 @@
       <c r="AD43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:30">
+      <c r="AE43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C44" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O44">
         <v>43</v>
       </c>
       <c r="P44" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q44">
         <v>30</v>
@@ -3295,13 +3427,13 @@
         <v>59</v>
       </c>
       <c r="S44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="T44" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="W44" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -3318,22 +3450,25 @@
       <c r="AD44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:30">
+      <c r="AE44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B45" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C45" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O45">
         <v>44</v>
       </c>
       <c r="P45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q45">
         <v>31</v>
@@ -3342,13 +3477,13 @@
         <v>60</v>
       </c>
       <c r="S45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="T45" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="W45" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -3365,22 +3500,25 @@
       <c r="AD45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:30">
+      <c r="AE45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C46" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O46">
         <v>45</v>
       </c>
       <c r="P46" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q46">
         <v>31</v>
@@ -3389,13 +3527,13 @@
         <v>60</v>
       </c>
       <c r="S46" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="T46" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="W46" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -3412,22 +3550,25 @@
       <c r="AD46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:30">
+      <c r="AE46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B47" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C47" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O47">
         <v>46</v>
       </c>
       <c r="P47" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q47">
         <v>32</v>
@@ -3436,13 +3577,13 @@
         <v>61</v>
       </c>
       <c r="S47" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T47" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="W47" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -3459,22 +3600,25 @@
       <c r="AD47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:30">
+      <c r="AE47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B48" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C48" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O48">
         <v>47</v>
       </c>
       <c r="P48" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q48">
         <v>33</v>
@@ -3483,13 +3627,13 @@
         <v>63</v>
       </c>
       <c r="S48" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T48" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="W48" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -3506,22 +3650,25 @@
       <c r="AD48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:30">
+      <c r="AE48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B49" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C49" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O49">
         <v>48</v>
       </c>
       <c r="P49" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q49">
         <v>33</v>
@@ -3530,13 +3677,13 @@
         <v>63</v>
       </c>
       <c r="S49" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T49" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="W49" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -3553,22 +3700,25 @@
       <c r="AD49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:30">
+      <c r="AE49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B50" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C50" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O50">
         <v>49</v>
       </c>
       <c r="P50" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q50">
         <v>33</v>
@@ -3577,13 +3727,13 @@
         <v>63</v>
       </c>
       <c r="S50" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T50" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="W50" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -3600,22 +3750,25 @@
       <c r="AD50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:30">
+      <c r="AE50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31">
       <c r="A51" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B51" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C51" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O51">
         <v>50</v>
       </c>
       <c r="P51" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q51">
         <v>33</v>
@@ -3624,13 +3777,13 @@
         <v>63</v>
       </c>
       <c r="S51" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T51" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="W51" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -3647,22 +3800,25 @@
       <c r="AD51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:30">
+      <c r="AE51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31">
       <c r="A52" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B52" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C52" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O52">
         <v>51</v>
       </c>
       <c r="P52" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q52">
         <v>34</v>
@@ -3671,13 +3827,13 @@
         <v>64</v>
       </c>
       <c r="S52" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="T52" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="W52" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -3694,22 +3850,25 @@
       <c r="AD52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:30">
+      <c r="AE52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31">
       <c r="A53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B53" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C53" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O53">
         <v>52</v>
       </c>
       <c r="P53" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q53">
         <v>36</v>
@@ -3718,13 +3877,13 @@
         <v>77</v>
       </c>
       <c r="S53" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="T53" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="W53" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -3741,22 +3900,25 @@
       <c r="AD53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:30">
+      <c r="AE53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31">
       <c r="A54" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B54" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C54" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O54">
         <v>53</v>
       </c>
       <c r="P54" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q54">
         <v>37</v>
@@ -3765,13 +3927,13 @@
         <v>78</v>
       </c>
       <c r="S54" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="T54" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="W54" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -3788,22 +3950,25 @@
       <c r="AD54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:30">
+      <c r="AE54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B55" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C55" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O55">
         <v>54</v>
       </c>
       <c r="P55" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q55">
         <v>37</v>
@@ -3812,13 +3977,13 @@
         <v>78</v>
       </c>
       <c r="S55" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="T55" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="W55" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -3835,22 +4000,25 @@
       <c r="AD55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:30">
+      <c r="AE55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B56" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C56" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O56">
         <v>55</v>
       </c>
       <c r="P56" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q56">
         <v>38</v>
@@ -3859,13 +4027,13 @@
         <v>80</v>
       </c>
       <c r="S56" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="T56" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="W56" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -3882,22 +4050,25 @@
       <c r="AD56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:30">
+      <c r="AE56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31">
       <c r="A57" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B57" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C57" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O57">
         <v>56</v>
       </c>
       <c r="P57" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q57">
         <v>39</v>
@@ -3906,13 +4077,13 @@
         <v>81</v>
       </c>
       <c r="S57" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="T57" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="W57" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -3929,22 +4100,25 @@
       <c r="AD57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:30">
+      <c r="AE57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31">
       <c r="A58" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B58" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C58" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O58">
         <v>57</v>
       </c>
       <c r="P58" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q58">
         <v>39</v>
@@ -3953,13 +4127,13 @@
         <v>81</v>
       </c>
       <c r="S58" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="T58" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="W58" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -3976,22 +4150,25 @@
       <c r="AD58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:30">
+      <c r="AE58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31">
       <c r="A59" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B59" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C59" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O59">
         <v>58</v>
       </c>
       <c r="P59" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q59">
         <v>39</v>
@@ -4000,13 +4177,13 @@
         <v>81</v>
       </c>
       <c r="S59" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="T59" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="W59" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -4023,22 +4200,25 @@
       <c r="AD59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:30">
+      <c r="AE59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31">
       <c r="A60" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B60" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C60" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O60">
         <v>59</v>
       </c>
       <c r="P60" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q60">
         <v>41</v>
@@ -4047,13 +4227,13 @@
         <v>83</v>
       </c>
       <c r="S60" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="T60" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="W60" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -4070,22 +4250,25 @@
       <c r="AD60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:30">
+      <c r="AE60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31">
       <c r="A61" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B61" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C61" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O61">
         <v>60</v>
       </c>
       <c r="P61" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q61">
         <v>41</v>
@@ -4094,13 +4277,13 @@
         <v>83</v>
       </c>
       <c r="S61" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="T61" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="W61" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -4117,22 +4300,25 @@
       <c r="AD61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:30">
+      <c r="AE61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31">
       <c r="A62" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B62" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C62" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O62">
         <v>61</v>
       </c>
       <c r="P62" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q62">
         <v>42</v>
@@ -4141,13 +4327,13 @@
         <v>84</v>
       </c>
       <c r="S62" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="T62" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="W62" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -4164,22 +4350,25 @@
       <c r="AD62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:30">
+      <c r="AE62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31">
       <c r="A63" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B63" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C63" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O63">
         <v>62</v>
       </c>
       <c r="P63" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q63">
         <v>42</v>
@@ -4188,13 +4377,13 @@
         <v>84</v>
       </c>
       <c r="S63" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="T63" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="W63" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -4211,22 +4400,25 @@
       <c r="AD63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:30">
+      <c r="AE63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31">
       <c r="A64" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B64" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C64" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O64">
         <v>63</v>
       </c>
       <c r="P64" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q64">
         <v>44</v>
@@ -4235,13 +4427,13 @@
         <v>87</v>
       </c>
       <c r="S64" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="T64" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="W64" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -4258,22 +4450,25 @@
       <c r="AD64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:30">
+      <c r="AE64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31">
       <c r="A65" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B65" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C65" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O65">
         <v>64</v>
       </c>
       <c r="P65" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q65">
         <v>45</v>
@@ -4282,13 +4477,13 @@
         <v>88</v>
       </c>
       <c r="S65" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="T65" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="W65" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -4305,22 +4500,25 @@
       <c r="AD65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:30">
+      <c r="AE65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31">
       <c r="A66" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B66" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C66" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O66">
         <v>65</v>
       </c>
       <c r="P66" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q66">
         <v>45</v>
@@ -4329,13 +4527,13 @@
         <v>88</v>
       </c>
       <c r="S66" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="T66" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="W66" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z66">
         <v>0</v>
@@ -4352,22 +4550,25 @@
       <c r="AD66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:30">
+      <c r="AE66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31">
       <c r="A67" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B67" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C67" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O67">
         <v>66</v>
       </c>
       <c r="P67" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q67">
         <v>46</v>
@@ -4376,13 +4577,13 @@
         <v>90</v>
       </c>
       <c r="S67" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="T67" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="W67" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z67">
         <v>0</v>
@@ -4399,22 +4600,25 @@
       <c r="AD67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:30">
+      <c r="AE67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31">
       <c r="A68" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B68" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C68" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O68">
         <v>67</v>
       </c>
       <c r="P68" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q68">
         <v>46</v>
@@ -4423,13 +4627,13 @@
         <v>90</v>
       </c>
       <c r="S68" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="T68" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="W68" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z68">
         <v>0</v>
@@ -4446,22 +4650,25 @@
       <c r="AD68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:30">
+      <c r="AE68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31">
       <c r="A69" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B69" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C69" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O69">
         <v>68</v>
       </c>
       <c r="P69" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q69">
         <v>46</v>
@@ -4470,13 +4677,13 @@
         <v>90</v>
       </c>
       <c r="S69" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="T69" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="W69" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z69">
         <v>0</v>
@@ -4493,22 +4700,25 @@
       <c r="AD69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:30">
+      <c r="AE69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31">
       <c r="A70" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B70" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C70" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O70">
         <v>69</v>
       </c>
       <c r="P70" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q70">
         <v>48</v>
@@ -4517,13 +4727,13 @@
         <v>92</v>
       </c>
       <c r="S70" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="T70" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="W70" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z70">
         <v>0</v>
@@ -4540,22 +4750,25 @@
       <c r="AD70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:30">
+      <c r="AE70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B71" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C71" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O71">
         <v>70</v>
       </c>
       <c r="P71" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q71">
         <v>49</v>
@@ -4564,13 +4777,13 @@
         <v>93</v>
       </c>
       <c r="S71" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="T71" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="W71" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z71">
         <v>0</v>
@@ -4587,22 +4800,25 @@
       <c r="AD71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:30">
+      <c r="AE71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B72" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C72" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O72">
         <v>71</v>
       </c>
       <c r="P72" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q72">
         <v>50</v>
@@ -4611,13 +4827,13 @@
         <v>94</v>
       </c>
       <c r="S72" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="T72" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="W72" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z72">
         <v>0</v>
@@ -4634,22 +4850,25 @@
       <c r="AD72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:30">
+      <c r="AE72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31">
       <c r="A73" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B73" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C73" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O73">
         <v>72</v>
       </c>
       <c r="P73" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q73">
         <v>50</v>
@@ -4658,13 +4877,13 @@
         <v>94</v>
       </c>
       <c r="S73" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="T73" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="W73" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z73">
         <v>0</v>
@@ -4681,22 +4900,25 @@
       <c r="AD73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:30">
+      <c r="AE73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31">
       <c r="A74" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B74" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C74" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O74">
         <v>73</v>
       </c>
       <c r="P74" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q74">
         <v>50</v>
@@ -4705,13 +4927,13 @@
         <v>94</v>
       </c>
       <c r="S74" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="T74" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="W74" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -4728,22 +4950,25 @@
       <c r="AD74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:30">
+      <c r="AE74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31">
       <c r="A75" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B75" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C75" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O75">
         <v>74</v>
       </c>
       <c r="P75" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q75">
         <v>51</v>
@@ -4752,13 +4977,13 @@
         <v>95</v>
       </c>
       <c r="S75" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="T75" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="W75" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z75">
         <v>0</v>
@@ -4775,22 +5000,25 @@
       <c r="AD75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:30">
+      <c r="AE75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31">
       <c r="A76" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B76" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C76" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O76">
         <v>75</v>
       </c>
       <c r="P76" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q76">
         <v>51</v>
@@ -4799,13 +5027,13 @@
         <v>95</v>
       </c>
       <c r="S76" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="T76" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="W76" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z76">
         <v>0</v>
@@ -4822,22 +5050,25 @@
       <c r="AD76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:30">
+      <c r="AE76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31">
       <c r="A77" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B77" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C77" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O77">
         <v>76</v>
       </c>
       <c r="P77" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q77">
         <v>51</v>
@@ -4846,13 +5077,13 @@
         <v>95</v>
       </c>
       <c r="S77" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="T77" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="W77" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -4869,22 +5100,25 @@
       <c r="AD77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:30">
+      <c r="AE77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31">
       <c r="A78" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B78" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C78" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O78">
         <v>77</v>
       </c>
       <c r="P78" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q78">
         <v>52</v>
@@ -4893,13 +5127,13 @@
         <v>96</v>
       </c>
       <c r="S78" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="T78" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="W78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z78">
         <v>0</v>
@@ -4916,22 +5150,25 @@
       <c r="AD78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:30">
+      <c r="AE78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31">
       <c r="A79" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B79" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C79" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O79">
         <v>78</v>
       </c>
       <c r="P79" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q79">
         <v>53</v>
@@ -4940,13 +5177,13 @@
         <v>98</v>
       </c>
       <c r="S79" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="T79" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="W79" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z79">
         <v>0</v>
@@ -4963,22 +5200,25 @@
       <c r="AD79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:30">
+      <c r="AE79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31">
       <c r="A80" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B80" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C80" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O80">
         <v>79</v>
       </c>
       <c r="P80" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q80">
         <v>54</v>
@@ -4987,13 +5227,13 @@
         <v>99</v>
       </c>
       <c r="S80" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="T80" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="W80" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z80">
         <v>0</v>
@@ -5010,22 +5250,25 @@
       <c r="AD80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:30">
+      <c r="AE80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31">
       <c r="A81" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B81" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C81" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O81">
         <v>80</v>
       </c>
       <c r="P81" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q81">
         <v>55</v>
@@ -5034,13 +5277,13 @@
         <v>100</v>
       </c>
       <c r="S81" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="T81" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="W81" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -5057,22 +5300,25 @@
       <c r="AD81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:30">
+      <c r="AE81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:31">
       <c r="A82" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B82" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C82" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O82">
         <v>81</v>
       </c>
       <c r="P82" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q82">
         <v>55</v>
@@ -5081,13 +5327,13 @@
         <v>100</v>
       </c>
       <c r="S82" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="T82" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="W82" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z82">
         <v>0</v>
@@ -5104,22 +5350,25 @@
       <c r="AD82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:30">
+      <c r="AE82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31">
       <c r="A83" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B83" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C83" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O83">
         <v>82</v>
       </c>
       <c r="P83" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q83">
         <v>57</v>
@@ -5128,13 +5377,13 @@
         <v>102</v>
       </c>
       <c r="S83" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="T83" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="W83" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z83">
         <v>0</v>
@@ -5151,22 +5400,25 @@
       <c r="AD83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:30">
+      <c r="AE83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31">
       <c r="A84" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B84" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C84" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O84">
         <v>83</v>
       </c>
       <c r="P84" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q84">
         <v>59</v>
@@ -5175,13 +5427,13 @@
         <v>104</v>
       </c>
       <c r="S84" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="T84" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="W84" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z84">
         <v>0</v>
@@ -5198,22 +5450,25 @@
       <c r="AD84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:30">
+      <c r="AE84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31">
       <c r="A85" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B85" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C85" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O85">
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q85">
         <v>60</v>
@@ -5222,13 +5477,13 @@
         <v>105</v>
       </c>
       <c r="S85" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="T85" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="W85" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z85">
         <v>0</v>
@@ -5245,22 +5500,25 @@
       <c r="AD85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:30">
+      <c r="AE85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31">
       <c r="A86" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B86" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C86" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O86">
         <v>85</v>
       </c>
       <c r="P86" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q86">
         <v>61</v>
@@ -5269,13 +5527,13 @@
         <v>106</v>
       </c>
       <c r="S86" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="T86" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="W86" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z86">
         <v>0</v>
@@ -5292,22 +5550,25 @@
       <c r="AD86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:30">
+      <c r="AE86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31">
       <c r="A87" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B87" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C87" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O87">
         <v>86</v>
       </c>
       <c r="P87" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q87">
         <v>65</v>
@@ -5316,13 +5577,13 @@
         <v>111</v>
       </c>
       <c r="S87" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="T87" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="W87" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z87">
         <v>0</v>
@@ -5339,22 +5600,25 @@
       <c r="AD87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:30">
+      <c r="AE87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31">
       <c r="A88" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B88" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C88" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O88">
         <v>87</v>
       </c>
       <c r="P88" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q88">
         <v>68</v>
@@ -5363,13 +5627,13 @@
         <v>115</v>
       </c>
       <c r="S88" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="T88" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="W88" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z88">
         <v>0</v>
@@ -5386,22 +5650,25 @@
       <c r="AD88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:30">
+      <c r="AE88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:31">
       <c r="A89" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B89" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C89" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O89">
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q89">
         <v>71</v>
@@ -5410,13 +5677,13 @@
         <v>119</v>
       </c>
       <c r="S89" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T89" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W89" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z89">
         <v>0</v>
@@ -5433,22 +5700,25 @@
       <c r="AD89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:30">
+      <c r="AE89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:31">
       <c r="A90" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B90" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C90" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O90">
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q90">
         <v>71</v>
@@ -5457,13 +5727,13 @@
         <v>119</v>
       </c>
       <c r="S90" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T90" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W90" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z90">
         <v>0</v>
@@ -5480,22 +5750,25 @@
       <c r="AD90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:30">
+      <c r="AE90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31">
       <c r="A91" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B91" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C91" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O91">
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q91">
         <v>71</v>
@@ -5504,13 +5777,13 @@
         <v>119</v>
       </c>
       <c r="S91" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T91" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W91" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z91">
         <v>0</v>
@@ -5527,22 +5800,25 @@
       <c r="AD91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:30">
+      <c r="AE91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:31">
       <c r="A92" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B92" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C92" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O92">
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q92">
         <v>71</v>
@@ -5551,13 +5827,13 @@
         <v>119</v>
       </c>
       <c r="S92" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T92" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W92" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z92">
         <v>0</v>
@@ -5574,22 +5850,25 @@
       <c r="AD92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:30">
+      <c r="AE92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:31">
       <c r="A93" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B93" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C93" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O93">
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q93">
         <v>71</v>
@@ -5598,13 +5877,13 @@
         <v>119</v>
       </c>
       <c r="S93" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T93" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W93" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -5621,22 +5900,25 @@
       <c r="AD93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:30">
+      <c r="AE93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:31">
       <c r="A94" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B94" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C94" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O94">
         <v>93</v>
       </c>
       <c r="P94" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q94">
         <v>71</v>
@@ -5645,13 +5927,13 @@
         <v>119</v>
       </c>
       <c r="S94" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T94" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W94" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z94">
         <v>0</v>
@@ -5668,22 +5950,25 @@
       <c r="AD94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:30">
+      <c r="AE94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:31">
       <c r="A95" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B95" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C95" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O95">
         <v>94</v>
       </c>
       <c r="P95" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q95">
         <v>71</v>
@@ -5692,13 +5977,13 @@
         <v>119</v>
       </c>
       <c r="S95" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T95" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W95" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z95">
         <v>0</v>
@@ -5715,22 +6000,25 @@
       <c r="AD95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:30">
+      <c r="AE95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:31">
       <c r="A96" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B96" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C96" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O96">
         <v>95</v>
       </c>
       <c r="P96" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q96">
         <v>71</v>
@@ -5739,13 +6027,13 @@
         <v>119</v>
       </c>
       <c r="S96" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T96" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W96" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -5762,22 +6050,25 @@
       <c r="AD96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:30">
+      <c r="AE96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:31">
       <c r="A97" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B97" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C97" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O97">
         <v>96</v>
       </c>
       <c r="P97" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q97">
         <v>71</v>
@@ -5786,13 +6077,13 @@
         <v>119</v>
       </c>
       <c r="S97" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T97" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W97" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z97">
         <v>0</v>
@@ -5807,6 +6098,9 @@
         <v>0</v>
       </c>
       <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p26.xlsx
+++ b/files/separadas/repeat_p26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="274">
   <si>
     <t>p26_nom</t>
   </si>
@@ -98,12 +98,6 @@
   </si>
   <si>
     <t>c3</t>
-  </si>
-  <si>
-    <t>s_i</t>
-  </si>
-  <si>
-    <t>c4</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1203,13 +1197,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE97"/>
+  <dimension ref="A1:AC97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1297,28 +1291,22 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1327,13 +1315,13 @@
         <v>7</v>
       </c>
       <c r="S2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="T2" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="W2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1347,28 +1335,22 @@
       <c r="AC2">
         <v>0</v>
       </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O3">
         <v>2</v>
       </c>
       <c r="P3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1377,13 +1359,13 @@
         <v>9</v>
       </c>
       <c r="S3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="T3" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="W3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1397,28 +1379,22 @@
       <c r="AC3">
         <v>0</v>
       </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31">
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O4">
         <v>3</v>
       </c>
       <c r="P4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1427,13 +1403,13 @@
         <v>10</v>
       </c>
       <c r="S4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="T4" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="W4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1447,28 +1423,22 @@
       <c r="AC4">
         <v>0</v>
       </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31">
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O5">
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -1477,13 +1447,13 @@
         <v>12</v>
       </c>
       <c r="S5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="T5" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="W5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1497,28 +1467,22 @@
       <c r="AC5">
         <v>0</v>
       </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31">
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O6">
         <v>5</v>
       </c>
       <c r="P6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q6">
         <v>7</v>
@@ -1527,13 +1491,13 @@
         <v>13</v>
       </c>
       <c r="S6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="T6" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="W6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1547,28 +1511,22 @@
       <c r="AC6">
         <v>0</v>
       </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31">
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O7">
         <v>6</v>
       </c>
       <c r="P7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q7">
         <v>9</v>
@@ -1577,13 +1535,13 @@
         <v>15</v>
       </c>
       <c r="S7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="T7" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="W7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1597,28 +1555,22 @@
       <c r="AC7">
         <v>0</v>
       </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31">
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O8">
         <v>7</v>
       </c>
       <c r="P8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -1627,13 +1579,13 @@
         <v>15</v>
       </c>
       <c r="S8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="T8" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="W8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1647,28 +1599,22 @@
       <c r="AC8">
         <v>0</v>
       </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31">
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O9">
         <v>8</v>
       </c>
       <c r="P9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q9">
         <v>10</v>
@@ -1677,13 +1623,13 @@
         <v>16</v>
       </c>
       <c r="S9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="T9" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="W9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -1697,28 +1643,22 @@
       <c r="AC9">
         <v>0</v>
       </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31">
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O10">
         <v>9</v>
       </c>
       <c r="P10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -1727,13 +1667,13 @@
         <v>17</v>
       </c>
       <c r="S10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="T10" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="W10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -1747,28 +1687,22 @@
       <c r="AC10">
         <v>0</v>
       </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31">
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O11">
         <v>10</v>
       </c>
       <c r="P11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q11">
         <v>11</v>
@@ -1777,13 +1711,13 @@
         <v>17</v>
       </c>
       <c r="S11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="T11" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="W11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -1797,28 +1731,22 @@
       <c r="AC11">
         <v>0</v>
       </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31">
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O12">
         <v>11</v>
       </c>
       <c r="P12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q12">
         <v>11</v>
@@ -1827,13 +1755,13 @@
         <v>17</v>
       </c>
       <c r="S12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="T12" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="W12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -1847,28 +1775,22 @@
       <c r="AC12">
         <v>0</v>
       </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31">
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O13">
         <v>12</v>
       </c>
       <c r="P13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q13">
         <v>11</v>
@@ -1877,13 +1799,13 @@
         <v>17</v>
       </c>
       <c r="S13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="T13" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="W13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -1897,28 +1819,22 @@
       <c r="AC13">
         <v>0</v>
       </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31">
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O14">
         <v>13</v>
       </c>
       <c r="P14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q14">
         <v>11</v>
@@ -1927,13 +1843,13 @@
         <v>17</v>
       </c>
       <c r="S14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="T14" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="W14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -1947,28 +1863,22 @@
       <c r="AC14">
         <v>0</v>
       </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31">
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O15">
         <v>14</v>
       </c>
       <c r="P15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q15">
         <v>11</v>
@@ -1977,13 +1887,13 @@
         <v>17</v>
       </c>
       <c r="S15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="T15" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="W15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -1997,28 +1907,22 @@
       <c r="AC15">
         <v>0</v>
       </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31">
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O16">
         <v>15</v>
       </c>
       <c r="P16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q16">
         <v>13</v>
@@ -2027,13 +1931,13 @@
         <v>20</v>
       </c>
       <c r="S16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="T16" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="W16" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2047,28 +1951,22 @@
       <c r="AC16">
         <v>0</v>
       </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31">
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O17">
         <v>16</v>
       </c>
       <c r="P17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q17">
         <v>13</v>
@@ -2077,13 +1975,13 @@
         <v>20</v>
       </c>
       <c r="S17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="T17" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="W17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -2097,28 +1995,22 @@
       <c r="AC17">
         <v>0</v>
       </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31">
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O18">
         <v>17</v>
       </c>
       <c r="P18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q18">
         <v>16</v>
@@ -2127,13 +2019,13 @@
         <v>25</v>
       </c>
       <c r="S18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="T18" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="W18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -2147,28 +2039,22 @@
       <c r="AC18">
         <v>0</v>
       </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31">
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O19">
         <v>18</v>
       </c>
       <c r="P19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q19">
         <v>17</v>
@@ -2177,13 +2063,13 @@
         <v>26</v>
       </c>
       <c r="S19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="T19" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="W19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2197,28 +2083,22 @@
       <c r="AC19">
         <v>0</v>
       </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31">
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O20">
         <v>19</v>
       </c>
       <c r="P20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q20">
         <v>18</v>
@@ -2227,13 +2107,13 @@
         <v>27</v>
       </c>
       <c r="S20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="T20" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="W20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2247,28 +2127,22 @@
       <c r="AC20">
         <v>0</v>
       </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31">
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O21">
         <v>20</v>
       </c>
       <c r="P21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q21">
         <v>19</v>
@@ -2277,13 +2151,13 @@
         <v>30</v>
       </c>
       <c r="S21" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="T21" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="W21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -2297,28 +2171,22 @@
       <c r="AC21">
         <v>0</v>
       </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31">
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O22">
         <v>21</v>
       </c>
       <c r="P22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q22">
         <v>20</v>
@@ -2327,13 +2195,13 @@
         <v>33</v>
       </c>
       <c r="S22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="T22" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="W22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -2347,28 +2215,22 @@
       <c r="AC22">
         <v>0</v>
       </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31">
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O23">
         <v>22</v>
       </c>
       <c r="P23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q23">
         <v>21</v>
@@ -2377,13 +2239,13 @@
         <v>34</v>
       </c>
       <c r="S23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="T23" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="W23" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -2397,28 +2259,22 @@
       <c r="AC23">
         <v>0</v>
       </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31">
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C24" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O24">
         <v>23</v>
       </c>
       <c r="P24" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q24">
         <v>22</v>
@@ -2427,13 +2283,13 @@
         <v>37</v>
       </c>
       <c r="S24" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="T24" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="W24" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -2447,28 +2303,22 @@
       <c r="AC24">
         <v>0</v>
       </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31">
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O25">
         <v>24</v>
       </c>
       <c r="P25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q25">
         <v>22</v>
@@ -2477,13 +2327,13 @@
         <v>37</v>
       </c>
       <c r="S25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="T25" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="W25" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -2497,28 +2347,22 @@
       <c r="AC25">
         <v>0</v>
       </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31">
+    </row>
+    <row r="26" spans="1:29">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C26" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O26">
         <v>25</v>
       </c>
       <c r="P26" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q26">
         <v>23</v>
@@ -2527,13 +2371,13 @@
         <v>38</v>
       </c>
       <c r="S26" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="T26" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="W26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -2547,28 +2391,22 @@
       <c r="AC26">
         <v>0</v>
       </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31">
+    </row>
+    <row r="27" spans="1:29">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C27" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O27">
         <v>26</v>
       </c>
       <c r="P27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q27">
         <v>23</v>
@@ -2577,13 +2415,13 @@
         <v>38</v>
       </c>
       <c r="S27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="T27" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="W27" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -2597,28 +2435,22 @@
       <c r="AC27">
         <v>0</v>
       </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31">
+    </row>
+    <row r="28" spans="1:29">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O28">
         <v>27</v>
       </c>
       <c r="P28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q28">
         <v>23</v>
@@ -2627,13 +2459,13 @@
         <v>38</v>
       </c>
       <c r="S28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="T28" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="W28" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -2647,28 +2479,22 @@
       <c r="AC28">
         <v>0</v>
       </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31">
+    </row>
+    <row r="29" spans="1:29">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O29">
         <v>28</v>
       </c>
       <c r="P29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q29">
         <v>23</v>
@@ -2677,13 +2503,13 @@
         <v>38</v>
       </c>
       <c r="S29" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="T29" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="W29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -2697,28 +2523,22 @@
       <c r="AC29">
         <v>0</v>
       </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31">
+    </row>
+    <row r="30" spans="1:29">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C30" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O30">
         <v>29</v>
       </c>
       <c r="P30" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q30">
         <v>24</v>
@@ -2727,13 +2547,13 @@
         <v>51</v>
       </c>
       <c r="S30" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="T30" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="W30" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -2747,28 +2567,22 @@
       <c r="AC30">
         <v>0</v>
       </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31">
+    </row>
+    <row r="31" spans="1:29">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O31">
         <v>30</v>
       </c>
       <c r="P31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q31">
         <v>24</v>
@@ -2777,13 +2591,13 @@
         <v>51</v>
       </c>
       <c r="S31" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="T31" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="W31" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -2797,28 +2611,22 @@
       <c r="AC31">
         <v>0</v>
       </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31">
+    </row>
+    <row r="32" spans="1:29">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O32">
         <v>31</v>
       </c>
       <c r="P32" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q32">
         <v>24</v>
@@ -2827,13 +2635,13 @@
         <v>51</v>
       </c>
       <c r="S32" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="T32" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="W32" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -2847,28 +2655,22 @@
       <c r="AC32">
         <v>0</v>
       </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31">
+    </row>
+    <row r="33" spans="1:29">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O33">
         <v>32</v>
       </c>
       <c r="P33" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q33">
         <v>24</v>
@@ -2877,13 +2679,13 @@
         <v>51</v>
       </c>
       <c r="S33" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="T33" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="W33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -2897,28 +2699,22 @@
       <c r="AC33">
         <v>0</v>
       </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
-      <c r="AE33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31">
+    </row>
+    <row r="34" spans="1:29">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O34">
         <v>33</v>
       </c>
       <c r="P34" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q34">
         <v>24</v>
@@ -2927,13 +2723,13 @@
         <v>51</v>
       </c>
       <c r="S34" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="T34" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="W34" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -2947,28 +2743,22 @@
       <c r="AC34">
         <v>0</v>
       </c>
-      <c r="AD34">
-        <v>0</v>
-      </c>
-      <c r="AE34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31">
+    </row>
+    <row r="35" spans="1:29">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C35" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O35">
         <v>34</v>
       </c>
       <c r="P35" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q35">
         <v>26</v>
@@ -2977,13 +2767,13 @@
         <v>55</v>
       </c>
       <c r="S35" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="T35" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="W35" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -2997,28 +2787,22 @@
       <c r="AC35">
         <v>0</v>
       </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
-      <c r="AE35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31">
+    </row>
+    <row r="36" spans="1:29">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C36" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O36">
         <v>35</v>
       </c>
       <c r="P36" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q36">
         <v>27</v>
@@ -3027,13 +2811,13 @@
         <v>56</v>
       </c>
       <c r="S36" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="T36" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="W36" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -3047,28 +2831,22 @@
       <c r="AC36">
         <v>0</v>
       </c>
-      <c r="AD36">
-        <v>0</v>
-      </c>
-      <c r="AE36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31">
+    </row>
+    <row r="37" spans="1:29">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C37" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O37">
         <v>36</v>
       </c>
       <c r="P37" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q37">
         <v>28</v>
@@ -3077,13 +2855,13 @@
         <v>57</v>
       </c>
       <c r="S37" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="T37" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="W37" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -3097,28 +2875,22 @@
       <c r="AC37">
         <v>0</v>
       </c>
-      <c r="AD37">
-        <v>0</v>
-      </c>
-      <c r="AE37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:31">
+    </row>
+    <row r="38" spans="1:29">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C38" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O38">
         <v>37</v>
       </c>
       <c r="P38" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q38">
         <v>28</v>
@@ -3127,13 +2899,13 @@
         <v>57</v>
       </c>
       <c r="S38" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="T38" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="W38" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -3147,28 +2919,22 @@
       <c r="AC38">
         <v>0</v>
       </c>
-      <c r="AD38">
-        <v>0</v>
-      </c>
-      <c r="AE38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31">
+    </row>
+    <row r="39" spans="1:29">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O39">
         <v>38</v>
       </c>
       <c r="P39" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q39">
         <v>28</v>
@@ -3177,13 +2943,13 @@
         <v>57</v>
       </c>
       <c r="S39" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="T39" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="W39" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -3197,28 +2963,22 @@
       <c r="AC39">
         <v>0</v>
       </c>
-      <c r="AD39">
-        <v>0</v>
-      </c>
-      <c r="AE39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:31">
+    </row>
+    <row r="40" spans="1:29">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C40" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O40">
         <v>39</v>
       </c>
       <c r="P40" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q40">
         <v>28</v>
@@ -3227,13 +2987,13 @@
         <v>57</v>
       </c>
       <c r="S40" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="T40" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="W40" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -3247,28 +3007,22 @@
       <c r="AC40">
         <v>0</v>
       </c>
-      <c r="AD40">
-        <v>0</v>
-      </c>
-      <c r="AE40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31">
+    </row>
+    <row r="41" spans="1:29">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C41" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O41">
         <v>40</v>
       </c>
       <c r="P41" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q41">
         <v>29</v>
@@ -3277,13 +3031,13 @@
         <v>58</v>
       </c>
       <c r="S41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="T41" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="W41" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -3297,28 +3051,22 @@
       <c r="AC41">
         <v>0</v>
       </c>
-      <c r="AD41">
-        <v>0</v>
-      </c>
-      <c r="AE41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31">
+    </row>
+    <row r="42" spans="1:29">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C42" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O42">
         <v>41</v>
       </c>
       <c r="P42" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q42">
         <v>30</v>
@@ -3327,13 +3075,13 @@
         <v>59</v>
       </c>
       <c r="S42" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="T42" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="W42" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -3347,28 +3095,22 @@
       <c r="AC42">
         <v>0</v>
       </c>
-      <c r="AD42">
-        <v>0</v>
-      </c>
-      <c r="AE42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:31">
+    </row>
+    <row r="43" spans="1:29">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B43" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C43" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O43">
         <v>42</v>
       </c>
       <c r="P43" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q43">
         <v>30</v>
@@ -3377,13 +3119,13 @@
         <v>59</v>
       </c>
       <c r="S43" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="T43" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="W43" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -3397,28 +3139,22 @@
       <c r="AC43">
         <v>0</v>
       </c>
-      <c r="AD43">
-        <v>0</v>
-      </c>
-      <c r="AE43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:31">
+    </row>
+    <row r="44" spans="1:29">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B44" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C44" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O44">
         <v>43</v>
       </c>
       <c r="P44" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q44">
         <v>30</v>
@@ -3427,13 +3163,13 @@
         <v>59</v>
       </c>
       <c r="S44" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="T44" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="W44" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -3447,28 +3183,22 @@
       <c r="AC44">
         <v>0</v>
       </c>
-      <c r="AD44">
-        <v>0</v>
-      </c>
-      <c r="AE44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:31">
+    </row>
+    <row r="45" spans="1:29">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C45" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O45">
         <v>44</v>
       </c>
       <c r="P45" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q45">
         <v>31</v>
@@ -3477,13 +3207,13 @@
         <v>60</v>
       </c>
       <c r="S45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="T45" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="W45" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -3497,28 +3227,22 @@
       <c r="AC45">
         <v>0</v>
       </c>
-      <c r="AD45">
-        <v>0</v>
-      </c>
-      <c r="AE45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:31">
+    </row>
+    <row r="46" spans="1:29">
       <c r="A46" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B46" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C46" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O46">
         <v>45</v>
       </c>
       <c r="P46" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q46">
         <v>31</v>
@@ -3527,13 +3251,13 @@
         <v>60</v>
       </c>
       <c r="S46" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="T46" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="W46" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -3547,28 +3271,22 @@
       <c r="AC46">
         <v>0</v>
       </c>
-      <c r="AD46">
-        <v>0</v>
-      </c>
-      <c r="AE46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:31">
+    </row>
+    <row r="47" spans="1:29">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B47" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O47">
         <v>46</v>
       </c>
       <c r="P47" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q47">
         <v>32</v>
@@ -3577,13 +3295,13 @@
         <v>61</v>
       </c>
       <c r="S47" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="T47" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="W47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -3597,28 +3315,22 @@
       <c r="AC47">
         <v>0</v>
       </c>
-      <c r="AD47">
-        <v>0</v>
-      </c>
-      <c r="AE47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:31">
+    </row>
+    <row r="48" spans="1:29">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B48" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C48" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O48">
         <v>47</v>
       </c>
       <c r="P48" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q48">
         <v>33</v>
@@ -3627,13 +3339,13 @@
         <v>63</v>
       </c>
       <c r="S48" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="T48" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="W48" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -3647,28 +3359,22 @@
       <c r="AC48">
         <v>0</v>
       </c>
-      <c r="AD48">
-        <v>0</v>
-      </c>
-      <c r="AE48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:31">
+    </row>
+    <row r="49" spans="1:29">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B49" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C49" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O49">
         <v>48</v>
       </c>
       <c r="P49" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q49">
         <v>33</v>
@@ -3677,13 +3383,13 @@
         <v>63</v>
       </c>
       <c r="S49" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="T49" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="W49" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -3697,28 +3403,22 @@
       <c r="AC49">
         <v>0</v>
       </c>
-      <c r="AD49">
-        <v>0</v>
-      </c>
-      <c r="AE49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:31">
+    </row>
+    <row r="50" spans="1:29">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C50" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O50">
         <v>49</v>
       </c>
       <c r="P50" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q50">
         <v>33</v>
@@ -3727,13 +3427,13 @@
         <v>63</v>
       </c>
       <c r="S50" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="T50" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="W50" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -3747,28 +3447,22 @@
       <c r="AC50">
         <v>0</v>
       </c>
-      <c r="AD50">
-        <v>0</v>
-      </c>
-      <c r="AE50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:31">
+    </row>
+    <row r="51" spans="1:29">
       <c r="A51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B51" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C51" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O51">
         <v>50</v>
       </c>
       <c r="P51" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q51">
         <v>33</v>
@@ -3777,13 +3471,13 @@
         <v>63</v>
       </c>
       <c r="S51" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="T51" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="W51" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -3797,28 +3491,22 @@
       <c r="AC51">
         <v>0</v>
       </c>
-      <c r="AD51">
-        <v>0</v>
-      </c>
-      <c r="AE51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:31">
+    </row>
+    <row r="52" spans="1:29">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B52" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C52" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O52">
         <v>51</v>
       </c>
       <c r="P52" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q52">
         <v>34</v>
@@ -3827,13 +3515,13 @@
         <v>64</v>
       </c>
       <c r="S52" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="T52" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="W52" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -3847,28 +3535,22 @@
       <c r="AC52">
         <v>0</v>
       </c>
-      <c r="AD52">
-        <v>0</v>
-      </c>
-      <c r="AE52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:31">
+    </row>
+    <row r="53" spans="1:29">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B53" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C53" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O53">
         <v>52</v>
       </c>
       <c r="P53" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q53">
         <v>36</v>
@@ -3877,13 +3559,13 @@
         <v>77</v>
       </c>
       <c r="S53" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="T53" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="W53" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -3897,28 +3579,22 @@
       <c r="AC53">
         <v>0</v>
       </c>
-      <c r="AD53">
-        <v>0</v>
-      </c>
-      <c r="AE53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:31">
+    </row>
+    <row r="54" spans="1:29">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B54" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C54" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O54">
         <v>53</v>
       </c>
       <c r="P54" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q54">
         <v>37</v>
@@ -3927,13 +3603,13 @@
         <v>78</v>
       </c>
       <c r="S54" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="T54" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="W54" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -3947,28 +3623,22 @@
       <c r="AC54">
         <v>0</v>
       </c>
-      <c r="AD54">
-        <v>0</v>
-      </c>
-      <c r="AE54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:31">
+    </row>
+    <row r="55" spans="1:29">
       <c r="A55" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B55" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C55" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O55">
         <v>54</v>
       </c>
       <c r="P55" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q55">
         <v>37</v>
@@ -3977,13 +3647,13 @@
         <v>78</v>
       </c>
       <c r="S55" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="T55" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="W55" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -3997,28 +3667,22 @@
       <c r="AC55">
         <v>0</v>
       </c>
-      <c r="AD55">
-        <v>0</v>
-      </c>
-      <c r="AE55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:31">
+    </row>
+    <row r="56" spans="1:29">
       <c r="A56" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B56" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C56" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O56">
         <v>55</v>
       </c>
       <c r="P56" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q56">
         <v>38</v>
@@ -4027,13 +3691,13 @@
         <v>80</v>
       </c>
       <c r="S56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T56" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="W56" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -4047,28 +3711,22 @@
       <c r="AC56">
         <v>0</v>
       </c>
-      <c r="AD56">
-        <v>0</v>
-      </c>
-      <c r="AE56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:31">
+    </row>
+    <row r="57" spans="1:29">
       <c r="A57" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C57" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O57">
         <v>56</v>
       </c>
       <c r="P57" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q57">
         <v>39</v>
@@ -4077,13 +3735,13 @@
         <v>81</v>
       </c>
       <c r="S57" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="T57" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="W57" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -4097,28 +3755,22 @@
       <c r="AC57">
         <v>0</v>
       </c>
-      <c r="AD57">
-        <v>0</v>
-      </c>
-      <c r="AE57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:31">
+    </row>
+    <row r="58" spans="1:29">
       <c r="A58" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B58" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C58" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O58">
         <v>57</v>
       </c>
       <c r="P58" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q58">
         <v>39</v>
@@ -4127,13 +3779,13 @@
         <v>81</v>
       </c>
       <c r="S58" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="T58" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="W58" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -4147,28 +3799,22 @@
       <c r="AC58">
         <v>0</v>
       </c>
-      <c r="AD58">
-        <v>0</v>
-      </c>
-      <c r="AE58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31">
+    </row>
+    <row r="59" spans="1:29">
       <c r="A59" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C59" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O59">
         <v>58</v>
       </c>
       <c r="P59" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q59">
         <v>39</v>
@@ -4177,13 +3823,13 @@
         <v>81</v>
       </c>
       <c r="S59" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="T59" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="W59" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -4197,28 +3843,22 @@
       <c r="AC59">
         <v>0</v>
       </c>
-      <c r="AD59">
-        <v>0</v>
-      </c>
-      <c r="AE59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:31">
+    </row>
+    <row r="60" spans="1:29">
       <c r="A60" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B60" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C60" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O60">
         <v>59</v>
       </c>
       <c r="P60" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q60">
         <v>41</v>
@@ -4227,13 +3867,13 @@
         <v>83</v>
       </c>
       <c r="S60" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="T60" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="W60" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -4247,28 +3887,22 @@
       <c r="AC60">
         <v>0</v>
       </c>
-      <c r="AD60">
-        <v>0</v>
-      </c>
-      <c r="AE60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:31">
+    </row>
+    <row r="61" spans="1:29">
       <c r="A61" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B61" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C61" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O61">
         <v>60</v>
       </c>
       <c r="P61" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q61">
         <v>41</v>
@@ -4277,13 +3911,13 @@
         <v>83</v>
       </c>
       <c r="S61" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="T61" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="W61" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -4297,28 +3931,22 @@
       <c r="AC61">
         <v>0</v>
       </c>
-      <c r="AD61">
-        <v>0</v>
-      </c>
-      <c r="AE61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:31">
+    </row>
+    <row r="62" spans="1:29">
       <c r="A62" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B62" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C62" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O62">
         <v>61</v>
       </c>
       <c r="P62" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q62">
         <v>42</v>
@@ -4327,13 +3955,13 @@
         <v>84</v>
       </c>
       <c r="S62" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="T62" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="W62" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -4347,28 +3975,22 @@
       <c r="AC62">
         <v>0</v>
       </c>
-      <c r="AD62">
-        <v>0</v>
-      </c>
-      <c r="AE62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:31">
+    </row>
+    <row r="63" spans="1:29">
       <c r="A63" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B63" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C63" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O63">
         <v>62</v>
       </c>
       <c r="P63" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q63">
         <v>42</v>
@@ -4377,13 +3999,13 @@
         <v>84</v>
       </c>
       <c r="S63" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="T63" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="W63" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -4397,28 +4019,22 @@
       <c r="AC63">
         <v>0</v>
       </c>
-      <c r="AD63">
-        <v>0</v>
-      </c>
-      <c r="AE63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:31">
+    </row>
+    <row r="64" spans="1:29">
       <c r="A64" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B64" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C64" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O64">
         <v>63</v>
       </c>
       <c r="P64" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q64">
         <v>44</v>
@@ -4427,13 +4043,13 @@
         <v>87</v>
       </c>
       <c r="S64" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T64" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="W64" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -4447,28 +4063,22 @@
       <c r="AC64">
         <v>0</v>
       </c>
-      <c r="AD64">
-        <v>0</v>
-      </c>
-      <c r="AE64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:31">
+    </row>
+    <row r="65" spans="1:29">
       <c r="A65" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B65" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C65" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O65">
         <v>64</v>
       </c>
       <c r="P65" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q65">
         <v>45</v>
@@ -4477,13 +4087,13 @@
         <v>88</v>
       </c>
       <c r="S65" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="T65" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="W65" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -4497,28 +4107,22 @@
       <c r="AC65">
         <v>0</v>
       </c>
-      <c r="AD65">
-        <v>0</v>
-      </c>
-      <c r="AE65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:31">
+    </row>
+    <row r="66" spans="1:29">
       <c r="A66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B66" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C66" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O66">
         <v>65</v>
       </c>
       <c r="P66" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q66">
         <v>45</v>
@@ -4527,13 +4131,13 @@
         <v>88</v>
       </c>
       <c r="S66" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="T66" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="W66" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Z66">
         <v>0</v>
@@ -4547,28 +4151,22 @@
       <c r="AC66">
         <v>0</v>
       </c>
-      <c r="AD66">
-        <v>0</v>
-      </c>
-      <c r="AE66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:31">
+    </row>
+    <row r="67" spans="1:29">
       <c r="A67" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B67" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C67" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O67">
         <v>66</v>
       </c>
       <c r="P67" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q67">
         <v>46</v>
@@ -4577,13 +4175,13 @@
         <v>90</v>
       </c>
       <c r="S67" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="T67" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="W67" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z67">
         <v>0</v>
@@ -4597,28 +4195,22 @@
       <c r="AC67">
         <v>0</v>
       </c>
-      <c r="AD67">
-        <v>0</v>
-      </c>
-      <c r="AE67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:31">
+    </row>
+    <row r="68" spans="1:29">
       <c r="A68" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B68" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C68" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O68">
         <v>67</v>
       </c>
       <c r="P68" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q68">
         <v>46</v>
@@ -4627,13 +4219,13 @@
         <v>90</v>
       </c>
       <c r="S68" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="T68" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="W68" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z68">
         <v>0</v>
@@ -4647,28 +4239,22 @@
       <c r="AC68">
         <v>0</v>
       </c>
-      <c r="AD68">
-        <v>0</v>
-      </c>
-      <c r="AE68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:31">
+    </row>
+    <row r="69" spans="1:29">
       <c r="A69" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B69" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C69" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O69">
         <v>68</v>
       </c>
       <c r="P69" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q69">
         <v>46</v>
@@ -4677,13 +4263,13 @@
         <v>90</v>
       </c>
       <c r="S69" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="T69" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="W69" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z69">
         <v>0</v>
@@ -4697,28 +4283,22 @@
       <c r="AC69">
         <v>0</v>
       </c>
-      <c r="AD69">
-        <v>0</v>
-      </c>
-      <c r="AE69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:31">
+    </row>
+    <row r="70" spans="1:29">
       <c r="A70" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B70" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C70" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O70">
         <v>69</v>
       </c>
       <c r="P70" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q70">
         <v>48</v>
@@ -4727,13 +4307,13 @@
         <v>92</v>
       </c>
       <c r="S70" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="T70" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="W70" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z70">
         <v>0</v>
@@ -4747,28 +4327,22 @@
       <c r="AC70">
         <v>0</v>
       </c>
-      <c r="AD70">
-        <v>0</v>
-      </c>
-      <c r="AE70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:31">
+    </row>
+    <row r="71" spans="1:29">
       <c r="A71" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B71" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O71">
         <v>70</v>
       </c>
       <c r="P71" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q71">
         <v>49</v>
@@ -4777,13 +4351,13 @@
         <v>93</v>
       </c>
       <c r="S71" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="T71" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="W71" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z71">
         <v>0</v>
@@ -4797,28 +4371,22 @@
       <c r="AC71">
         <v>0</v>
       </c>
-      <c r="AD71">
-        <v>0</v>
-      </c>
-      <c r="AE71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:31">
+    </row>
+    <row r="72" spans="1:29">
       <c r="A72" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B72" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C72" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O72">
         <v>71</v>
       </c>
       <c r="P72" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q72">
         <v>50</v>
@@ -4827,13 +4395,13 @@
         <v>94</v>
       </c>
       <c r="S72" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="T72" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="W72" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z72">
         <v>0</v>
@@ -4847,28 +4415,22 @@
       <c r="AC72">
         <v>0</v>
       </c>
-      <c r="AD72">
-        <v>0</v>
-      </c>
-      <c r="AE72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:31">
+    </row>
+    <row r="73" spans="1:29">
       <c r="A73" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B73" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C73" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O73">
         <v>72</v>
       </c>
       <c r="P73" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q73">
         <v>50</v>
@@ -4877,13 +4439,13 @@
         <v>94</v>
       </c>
       <c r="S73" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="T73" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="W73" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z73">
         <v>0</v>
@@ -4897,28 +4459,22 @@
       <c r="AC73">
         <v>0</v>
       </c>
-      <c r="AD73">
-        <v>0</v>
-      </c>
-      <c r="AE73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:31">
+    </row>
+    <row r="74" spans="1:29">
       <c r="A74" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B74" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C74" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O74">
         <v>73</v>
       </c>
       <c r="P74" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q74">
         <v>50</v>
@@ -4927,13 +4483,13 @@
         <v>94</v>
       </c>
       <c r="S74" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="T74" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="W74" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -4947,28 +4503,22 @@
       <c r="AC74">
         <v>0</v>
       </c>
-      <c r="AD74">
-        <v>0</v>
-      </c>
-      <c r="AE74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:31">
+    </row>
+    <row r="75" spans="1:29">
       <c r="A75" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B75" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C75" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O75">
         <v>74</v>
       </c>
       <c r="P75" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q75">
         <v>51</v>
@@ -4977,13 +4527,13 @@
         <v>95</v>
       </c>
       <c r="S75" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="T75" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="W75" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z75">
         <v>0</v>
@@ -4997,28 +4547,22 @@
       <c r="AC75">
         <v>0</v>
       </c>
-      <c r="AD75">
-        <v>0</v>
-      </c>
-      <c r="AE75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:31">
+    </row>
+    <row r="76" spans="1:29">
       <c r="A76" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B76" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C76" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O76">
         <v>75</v>
       </c>
       <c r="P76" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q76">
         <v>51</v>
@@ -5027,13 +4571,13 @@
         <v>95</v>
       </c>
       <c r="S76" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="T76" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="W76" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z76">
         <v>0</v>
@@ -5047,28 +4591,22 @@
       <c r="AC76">
         <v>0</v>
       </c>
-      <c r="AD76">
-        <v>0</v>
-      </c>
-      <c r="AE76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:31">
+    </row>
+    <row r="77" spans="1:29">
       <c r="A77" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B77" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C77" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O77">
         <v>76</v>
       </c>
       <c r="P77" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q77">
         <v>51</v>
@@ -5077,13 +4615,13 @@
         <v>95</v>
       </c>
       <c r="S77" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="T77" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="W77" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -5097,28 +4635,22 @@
       <c r="AC77">
         <v>0</v>
       </c>
-      <c r="AD77">
-        <v>0</v>
-      </c>
-      <c r="AE77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:31">
+    </row>
+    <row r="78" spans="1:29">
       <c r="A78" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B78" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C78" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O78">
         <v>77</v>
       </c>
       <c r="P78" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q78">
         <v>52</v>
@@ -5127,13 +4659,13 @@
         <v>96</v>
       </c>
       <c r="S78" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="T78" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="W78" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z78">
         <v>0</v>
@@ -5147,28 +4679,22 @@
       <c r="AC78">
         <v>0</v>
       </c>
-      <c r="AD78">
-        <v>0</v>
-      </c>
-      <c r="AE78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:31">
+    </row>
+    <row r="79" spans="1:29">
       <c r="A79" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B79" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C79" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O79">
         <v>78</v>
       </c>
       <c r="P79" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q79">
         <v>53</v>
@@ -5177,13 +4703,13 @@
         <v>98</v>
       </c>
       <c r="S79" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="T79" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="W79" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Z79">
         <v>0</v>
@@ -5197,28 +4723,22 @@
       <c r="AC79">
         <v>0</v>
       </c>
-      <c r="AD79">
-        <v>0</v>
-      </c>
-      <c r="AE79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:31">
+    </row>
+    <row r="80" spans="1:29">
       <c r="A80" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B80" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C80" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O80">
         <v>79</v>
       </c>
       <c r="P80" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q80">
         <v>54</v>
@@ -5227,13 +4747,13 @@
         <v>99</v>
       </c>
       <c r="S80" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="T80" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="W80" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z80">
         <v>0</v>
@@ -5247,28 +4767,22 @@
       <c r="AC80">
         <v>0</v>
       </c>
-      <c r="AD80">
-        <v>0</v>
-      </c>
-      <c r="AE80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:31">
+    </row>
+    <row r="81" spans="1:29">
       <c r="A81" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C81" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O81">
         <v>80</v>
       </c>
       <c r="P81" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q81">
         <v>55</v>
@@ -5277,13 +4791,13 @@
         <v>100</v>
       </c>
       <c r="S81" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="T81" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="W81" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -5297,28 +4811,22 @@
       <c r="AC81">
         <v>0</v>
       </c>
-      <c r="AD81">
-        <v>0</v>
-      </c>
-      <c r="AE81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:31">
+    </row>
+    <row r="82" spans="1:29">
       <c r="A82" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B82" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C82" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O82">
         <v>81</v>
       </c>
       <c r="P82" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q82">
         <v>55</v>
@@ -5327,13 +4835,13 @@
         <v>100</v>
       </c>
       <c r="S82" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="T82" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="W82" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z82">
         <v>0</v>
@@ -5347,28 +4855,22 @@
       <c r="AC82">
         <v>0</v>
       </c>
-      <c r="AD82">
-        <v>0</v>
-      </c>
-      <c r="AE82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:31">
+    </row>
+    <row r="83" spans="1:29">
       <c r="A83" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B83" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C83" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O83">
         <v>82</v>
       </c>
       <c r="P83" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q83">
         <v>57</v>
@@ -5377,13 +4879,13 @@
         <v>102</v>
       </c>
       <c r="S83" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="T83" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="W83" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z83">
         <v>0</v>
@@ -5397,28 +4899,22 @@
       <c r="AC83">
         <v>0</v>
       </c>
-      <c r="AD83">
-        <v>0</v>
-      </c>
-      <c r="AE83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:31">
+    </row>
+    <row r="84" spans="1:29">
       <c r="A84" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B84" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C84" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O84">
         <v>83</v>
       </c>
       <c r="P84" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q84">
         <v>59</v>
@@ -5427,13 +4923,13 @@
         <v>104</v>
       </c>
       <c r="S84" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T84" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="W84" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z84">
         <v>0</v>
@@ -5447,28 +4943,22 @@
       <c r="AC84">
         <v>0</v>
       </c>
-      <c r="AD84">
-        <v>0</v>
-      </c>
-      <c r="AE84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:31">
+    </row>
+    <row r="85" spans="1:29">
       <c r="A85" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B85" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C85" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O85">
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q85">
         <v>60</v>
@@ -5477,13 +4967,13 @@
         <v>105</v>
       </c>
       <c r="S85" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="T85" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="W85" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z85">
         <v>0</v>
@@ -5497,28 +4987,22 @@
       <c r="AC85">
         <v>0</v>
       </c>
-      <c r="AD85">
-        <v>0</v>
-      </c>
-      <c r="AE85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:31">
+    </row>
+    <row r="86" spans="1:29">
       <c r="A86" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B86" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C86" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O86">
         <v>85</v>
       </c>
       <c r="P86" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q86">
         <v>61</v>
@@ -5527,13 +5011,13 @@
         <v>106</v>
       </c>
       <c r="S86" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="T86" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="W86" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z86">
         <v>0</v>
@@ -5547,28 +5031,22 @@
       <c r="AC86">
         <v>0</v>
       </c>
-      <c r="AD86">
-        <v>0</v>
-      </c>
-      <c r="AE86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:31">
+    </row>
+    <row r="87" spans="1:29">
       <c r="A87" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B87" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C87" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O87">
         <v>86</v>
       </c>
       <c r="P87" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q87">
         <v>64</v>
@@ -5577,13 +5055,13 @@
         <v>111</v>
       </c>
       <c r="S87" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="T87" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="W87" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z87">
         <v>0</v>
@@ -5597,28 +5075,22 @@
       <c r="AC87">
         <v>0</v>
       </c>
-      <c r="AD87">
-        <v>0</v>
-      </c>
-      <c r="AE87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:31">
+    </row>
+    <row r="88" spans="1:29">
       <c r="A88" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B88" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C88" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O88">
         <v>87</v>
       </c>
       <c r="P88" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q88">
         <v>67</v>
@@ -5627,13 +5099,13 @@
         <v>115</v>
       </c>
       <c r="S88" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="T88" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="W88" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Z88">
         <v>0</v>
@@ -5647,28 +5119,22 @@
       <c r="AC88">
         <v>0</v>
       </c>
-      <c r="AD88">
-        <v>0</v>
-      </c>
-      <c r="AE88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:31">
+    </row>
+    <row r="89" spans="1:29">
       <c r="A89" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B89" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C89" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O89">
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q89">
         <v>70</v>
@@ -5677,13 +5143,13 @@
         <v>119</v>
       </c>
       <c r="S89" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="T89" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W89" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z89">
         <v>0</v>
@@ -5697,28 +5163,22 @@
       <c r="AC89">
         <v>0</v>
       </c>
-      <c r="AD89">
-        <v>0</v>
-      </c>
-      <c r="AE89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:31">
+    </row>
+    <row r="90" spans="1:29">
       <c r="A90" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B90" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C90" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O90">
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q90">
         <v>70</v>
@@ -5727,13 +5187,13 @@
         <v>119</v>
       </c>
       <c r="S90" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="T90" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W90" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z90">
         <v>0</v>
@@ -5747,28 +5207,22 @@
       <c r="AC90">
         <v>0</v>
       </c>
-      <c r="AD90">
-        <v>0</v>
-      </c>
-      <c r="AE90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:31">
+    </row>
+    <row r="91" spans="1:29">
       <c r="A91" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B91" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C91" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O91">
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q91">
         <v>70</v>
@@ -5777,13 +5231,13 @@
         <v>119</v>
       </c>
       <c r="S91" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="T91" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W91" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z91">
         <v>0</v>
@@ -5797,28 +5251,22 @@
       <c r="AC91">
         <v>0</v>
       </c>
-      <c r="AD91">
-        <v>0</v>
-      </c>
-      <c r="AE91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:31">
+    </row>
+    <row r="92" spans="1:29">
       <c r="A92" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B92" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C92" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O92">
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q92">
         <v>70</v>
@@ -5827,13 +5275,13 @@
         <v>119</v>
       </c>
       <c r="S92" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="T92" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W92" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z92">
         <v>0</v>
@@ -5847,28 +5295,22 @@
       <c r="AC92">
         <v>0</v>
       </c>
-      <c r="AD92">
-        <v>0</v>
-      </c>
-      <c r="AE92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:31">
+    </row>
+    <row r="93" spans="1:29">
       <c r="A93" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B93" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C93" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O93">
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q93">
         <v>70</v>
@@ -5877,13 +5319,13 @@
         <v>119</v>
       </c>
       <c r="S93" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="T93" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W93" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -5897,28 +5339,22 @@
       <c r="AC93">
         <v>0</v>
       </c>
-      <c r="AD93">
-        <v>0</v>
-      </c>
-      <c r="AE93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:31">
+    </row>
+    <row r="94" spans="1:29">
       <c r="A94" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B94" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C94" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O94">
         <v>93</v>
       </c>
       <c r="P94" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q94">
         <v>70</v>
@@ -5927,13 +5363,13 @@
         <v>119</v>
       </c>
       <c r="S94" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="T94" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W94" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z94">
         <v>0</v>
@@ -5947,28 +5383,22 @@
       <c r="AC94">
         <v>0</v>
       </c>
-      <c r="AD94">
-        <v>0</v>
-      </c>
-      <c r="AE94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:31">
+    </row>
+    <row r="95" spans="1:29">
       <c r="A95" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B95" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C95" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O95">
         <v>94</v>
       </c>
       <c r="P95" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q95">
         <v>70</v>
@@ -5977,13 +5407,13 @@
         <v>119</v>
       </c>
       <c r="S95" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="T95" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W95" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z95">
         <v>0</v>
@@ -5997,28 +5427,22 @@
       <c r="AC95">
         <v>0</v>
       </c>
-      <c r="AD95">
-        <v>0</v>
-      </c>
-      <c r="AE95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:31">
+    </row>
+    <row r="96" spans="1:29">
       <c r="A96" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B96" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C96" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O96">
         <v>95</v>
       </c>
       <c r="P96" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q96">
         <v>70</v>
@@ -6027,13 +5451,13 @@
         <v>119</v>
       </c>
       <c r="S96" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="T96" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W96" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -6047,28 +5471,22 @@
       <c r="AC96">
         <v>0</v>
       </c>
-      <c r="AD96">
-        <v>0</v>
-      </c>
-      <c r="AE96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:31">
+    </row>
+    <row r="97" spans="1:29">
       <c r="A97" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B97" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C97" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O97">
         <v>96</v>
       </c>
       <c r="P97" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q97">
         <v>70</v>
@@ -6077,13 +5495,13 @@
         <v>119</v>
       </c>
       <c r="S97" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="T97" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W97" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z97">
         <v>0</v>
@@ -6095,12 +5513,6 @@
         <v>0</v>
       </c>
       <c r="AC97">
-        <v>0</v>
-      </c>
-      <c r="AD97">
-        <v>0</v>
-      </c>
-      <c r="AE97">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p26.xlsx
+++ b/files/separadas/repeat_p26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="275">
   <si>
     <t>p26_nom</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>c3</t>
+  </si>
+  <si>
+    <t>l1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1197,13 +1200,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC97"/>
+  <dimension ref="A1:AD97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1291,22 +1294,25 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1315,13 +1321,13 @@
         <v>7</v>
       </c>
       <c r="S2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="T2" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="W2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1335,22 +1341,25 @@
       <c r="AC2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:29">
+      <c r="AD2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O3">
         <v>2</v>
       </c>
       <c r="P3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1359,13 +1368,13 @@
         <v>9</v>
       </c>
       <c r="S3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="T3" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="W3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1379,22 +1388,25 @@
       <c r="AC3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="AD3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O4">
         <v>3</v>
       </c>
       <c r="P4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1403,13 +1415,13 @@
         <v>10</v>
       </c>
       <c r="S4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="T4" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="W4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1423,22 +1435,25 @@
       <c r="AC4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="AD4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O5">
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -1447,13 +1462,13 @@
         <v>12</v>
       </c>
       <c r="S5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="T5" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="W5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1467,22 +1482,25 @@
       <c r="AC5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="AD5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O6">
         <v>5</v>
       </c>
       <c r="P6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q6">
         <v>7</v>
@@ -1491,13 +1509,13 @@
         <v>13</v>
       </c>
       <c r="S6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="T6" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="W6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1511,22 +1529,25 @@
       <c r="AC6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:29">
+      <c r="AD6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O7">
         <v>6</v>
       </c>
       <c r="P7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q7">
         <v>9</v>
@@ -1535,13 +1556,13 @@
         <v>15</v>
       </c>
       <c r="S7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T7" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="W7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1555,22 +1576,25 @@
       <c r="AC7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:29">
+      <c r="AD7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O8">
         <v>7</v>
       </c>
       <c r="P8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -1579,13 +1603,13 @@
         <v>15</v>
       </c>
       <c r="S8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T8" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="W8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1599,22 +1623,25 @@
       <c r="AC8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AD8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O9">
         <v>8</v>
       </c>
       <c r="P9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q9">
         <v>10</v>
@@ -1623,13 +1650,13 @@
         <v>16</v>
       </c>
       <c r="S9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="T9" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="W9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -1643,22 +1670,25 @@
       <c r="AC9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="AD9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O10">
         <v>9</v>
       </c>
       <c r="P10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -1667,13 +1697,13 @@
         <v>17</v>
       </c>
       <c r="S10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="T10" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="W10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -1687,22 +1717,25 @@
       <c r="AC10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="AD10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O11">
         <v>10</v>
       </c>
       <c r="P11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q11">
         <v>11</v>
@@ -1711,13 +1744,13 @@
         <v>17</v>
       </c>
       <c r="S11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="T11" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="W11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -1731,22 +1764,25 @@
       <c r="AC11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:29">
+      <c r="AD11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O12">
         <v>11</v>
       </c>
       <c r="P12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q12">
         <v>11</v>
@@ -1755,13 +1791,13 @@
         <v>17</v>
       </c>
       <c r="S12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="T12" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="W12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -1775,22 +1811,25 @@
       <c r="AC12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:29">
+      <c r="AD12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O13">
         <v>12</v>
       </c>
       <c r="P13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q13">
         <v>11</v>
@@ -1799,13 +1838,13 @@
         <v>17</v>
       </c>
       <c r="S13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="T13" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="W13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -1819,22 +1858,25 @@
       <c r="AC13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="AD13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O14">
         <v>13</v>
       </c>
       <c r="P14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q14">
         <v>11</v>
@@ -1843,13 +1885,13 @@
         <v>17</v>
       </c>
       <c r="S14" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="T14" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="W14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -1863,22 +1905,25 @@
       <c r="AC14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="AD14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O15">
         <v>14</v>
       </c>
       <c r="P15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q15">
         <v>11</v>
@@ -1887,13 +1932,13 @@
         <v>17</v>
       </c>
       <c r="S15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="T15" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="W15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -1907,22 +1952,25 @@
       <c r="AC15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29">
+      <c r="AD15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O16">
         <v>15</v>
       </c>
       <c r="P16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q16">
         <v>13</v>
@@ -1931,13 +1979,13 @@
         <v>20</v>
       </c>
       <c r="S16" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T16" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="W16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -1951,22 +1999,25 @@
       <c r="AC16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:29">
+      <c r="AD16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O17">
         <v>16</v>
       </c>
       <c r="P17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q17">
         <v>13</v>
@@ -1975,13 +2026,13 @@
         <v>20</v>
       </c>
       <c r="S17" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T17" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="W17" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -1995,22 +2046,25 @@
       <c r="AC17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:29">
+      <c r="AD17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O18">
         <v>17</v>
       </c>
       <c r="P18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q18">
         <v>16</v>
@@ -2019,13 +2073,13 @@
         <v>25</v>
       </c>
       <c r="S18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="T18" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="W18" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -2039,22 +2093,25 @@
       <c r="AC18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:29">
+      <c r="AD18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O19">
         <v>18</v>
       </c>
       <c r="P19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q19">
         <v>17</v>
@@ -2063,13 +2120,13 @@
         <v>26</v>
       </c>
       <c r="S19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="T19" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="W19" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2083,22 +2140,25 @@
       <c r="AC19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:29">
+      <c r="AD19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O20">
         <v>19</v>
       </c>
       <c r="P20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q20">
         <v>18</v>
@@ -2107,13 +2167,13 @@
         <v>27</v>
       </c>
       <c r="S20" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="T20" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="W20" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2127,22 +2187,25 @@
       <c r="AC20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:29">
+      <c r="AD20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O21">
         <v>20</v>
       </c>
       <c r="P21" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q21">
         <v>19</v>
@@ -2151,13 +2214,13 @@
         <v>30</v>
       </c>
       <c r="S21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="T21" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="W21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -2171,22 +2234,25 @@
       <c r="AC21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:29">
+      <c r="AD21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O22">
         <v>21</v>
       </c>
       <c r="P22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q22">
         <v>20</v>
@@ -2195,13 +2261,13 @@
         <v>33</v>
       </c>
       <c r="S22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="T22" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="W22" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -2215,22 +2281,25 @@
       <c r="AC22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:29">
+      <c r="AD22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O23">
         <v>22</v>
       </c>
       <c r="P23" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q23">
         <v>21</v>
@@ -2239,13 +2308,13 @@
         <v>34</v>
       </c>
       <c r="S23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="T23" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="W23" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -2259,22 +2328,25 @@
       <c r="AC23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:29">
+      <c r="AD23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O24">
         <v>23</v>
       </c>
       <c r="P24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q24">
         <v>22</v>
@@ -2283,13 +2355,13 @@
         <v>37</v>
       </c>
       <c r="S24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="T24" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="W24" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -2303,22 +2375,25 @@
       <c r="AC24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:29">
+      <c r="AD24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C25" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O25">
         <v>24</v>
       </c>
       <c r="P25" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q25">
         <v>22</v>
@@ -2327,13 +2402,13 @@
         <v>37</v>
       </c>
       <c r="S25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="T25" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="W25" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -2347,22 +2422,25 @@
       <c r="AC25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:29">
+      <c r="AD25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C26" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O26">
         <v>25</v>
       </c>
       <c r="P26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q26">
         <v>23</v>
@@ -2371,13 +2449,13 @@
         <v>38</v>
       </c>
       <c r="S26" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="T26" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="W26" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -2391,22 +2469,25 @@
       <c r="AC26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:29">
+      <c r="AD26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C27" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O27">
         <v>26</v>
       </c>
       <c r="P27" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q27">
         <v>23</v>
@@ -2415,13 +2496,13 @@
         <v>38</v>
       </c>
       <c r="S27" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="T27" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="W27" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -2435,22 +2516,25 @@
       <c r="AC27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:29">
+      <c r="AD27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O28">
         <v>27</v>
       </c>
       <c r="P28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q28">
         <v>23</v>
@@ -2459,13 +2543,13 @@
         <v>38</v>
       </c>
       <c r="S28" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="T28" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="W28" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -2479,22 +2563,25 @@
       <c r="AC28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:29">
+      <c r="AD28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C29" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O29">
         <v>28</v>
       </c>
       <c r="P29" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q29">
         <v>23</v>
@@ -2503,13 +2590,13 @@
         <v>38</v>
       </c>
       <c r="S29" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="T29" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="W29" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -2523,22 +2610,25 @@
       <c r="AC29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:29">
+      <c r="AD29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C30" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O30">
         <v>29</v>
       </c>
       <c r="P30" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q30">
         <v>24</v>
@@ -2547,13 +2637,13 @@
         <v>51</v>
       </c>
       <c r="S30" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T30" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="W30" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -2567,22 +2657,25 @@
       <c r="AC30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:29">
+      <c r="AD30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C31" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O31">
         <v>30</v>
       </c>
       <c r="P31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q31">
         <v>24</v>
@@ -2591,13 +2684,13 @@
         <v>51</v>
       </c>
       <c r="S31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T31" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="W31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -2611,22 +2704,25 @@
       <c r="AC31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:29">
+      <c r="AD31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C32" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O32">
         <v>31</v>
       </c>
       <c r="P32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q32">
         <v>24</v>
@@ -2635,13 +2731,13 @@
         <v>51</v>
       </c>
       <c r="S32" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T32" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="W32" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -2655,22 +2751,25 @@
       <c r="AC32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:29">
+      <c r="AD32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O33">
         <v>32</v>
       </c>
       <c r="P33" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q33">
         <v>24</v>
@@ -2679,13 +2778,13 @@
         <v>51</v>
       </c>
       <c r="S33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T33" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="W33" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -2699,22 +2798,25 @@
       <c r="AC33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:29">
+      <c r="AD33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C34" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O34">
         <v>33</v>
       </c>
       <c r="P34" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q34">
         <v>24</v>
@@ -2723,13 +2825,13 @@
         <v>51</v>
       </c>
       <c r="S34" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T34" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="W34" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -2743,22 +2845,25 @@
       <c r="AC34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:29">
+      <c r="AD34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C35" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O35">
         <v>34</v>
       </c>
       <c r="P35" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q35">
         <v>26</v>
@@ -2767,13 +2872,13 @@
         <v>55</v>
       </c>
       <c r="S35" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T35" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="W35" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -2787,22 +2892,25 @@
       <c r="AC35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:29">
+      <c r="AD35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C36" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O36">
         <v>35</v>
       </c>
       <c r="P36" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q36">
         <v>27</v>
@@ -2811,13 +2919,13 @@
         <v>56</v>
       </c>
       <c r="S36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="T36" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="W36" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -2831,22 +2939,25 @@
       <c r="AC36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:29">
+      <c r="AD36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O37">
         <v>36</v>
       </c>
       <c r="P37" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q37">
         <v>28</v>
@@ -2855,13 +2966,13 @@
         <v>57</v>
       </c>
       <c r="S37" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="T37" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="W37" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -2875,22 +2986,25 @@
       <c r="AC37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:29">
+      <c r="AD37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O38">
         <v>37</v>
       </c>
       <c r="P38" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q38">
         <v>28</v>
@@ -2899,13 +3013,13 @@
         <v>57</v>
       </c>
       <c r="S38" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="T38" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="W38" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -2919,22 +3033,25 @@
       <c r="AC38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:29">
+      <c r="AD38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C39" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O39">
         <v>38</v>
       </c>
       <c r="P39" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q39">
         <v>28</v>
@@ -2943,13 +3060,13 @@
         <v>57</v>
       </c>
       <c r="S39" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="T39" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="W39" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -2963,22 +3080,25 @@
       <c r="AC39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:29">
+      <c r="AD39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C40" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O40">
         <v>39</v>
       </c>
       <c r="P40" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q40">
         <v>28</v>
@@ -2987,13 +3107,13 @@
         <v>57</v>
       </c>
       <c r="S40" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="T40" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="W40" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -3007,22 +3127,25 @@
       <c r="AC40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:29">
+      <c r="AD40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C41" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O41">
         <v>40</v>
       </c>
       <c r="P41" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q41">
         <v>29</v>
@@ -3031,13 +3154,13 @@
         <v>58</v>
       </c>
       <c r="S41" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T41" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="W41" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -3051,22 +3174,25 @@
       <c r="AC41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:29">
+      <c r="AD41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O42">
         <v>41</v>
       </c>
       <c r="P42" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q42">
         <v>30</v>
@@ -3075,13 +3201,13 @@
         <v>59</v>
       </c>
       <c r="S42" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="T42" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="W42" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -3095,22 +3221,25 @@
       <c r="AC42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:29">
+      <c r="AD42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C43" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O43">
         <v>42</v>
       </c>
       <c r="P43" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q43">
         <v>30</v>
@@ -3119,13 +3248,13 @@
         <v>59</v>
       </c>
       <c r="S43" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="T43" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="W43" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -3139,22 +3268,25 @@
       <c r="AC43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:29">
+      <c r="AD43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C44" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O44">
         <v>43</v>
       </c>
       <c r="P44" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q44">
         <v>30</v>
@@ -3163,13 +3295,13 @@
         <v>59</v>
       </c>
       <c r="S44" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="T44" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="W44" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -3183,22 +3315,25 @@
       <c r="AC44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:29">
+      <c r="AD44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B45" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C45" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O45">
         <v>44</v>
       </c>
       <c r="P45" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q45">
         <v>31</v>
@@ -3207,13 +3342,13 @@
         <v>60</v>
       </c>
       <c r="S45" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="T45" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="W45" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -3227,22 +3362,25 @@
       <c r="AC45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:29">
+      <c r="AD45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C46" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O46">
         <v>45</v>
       </c>
       <c r="P46" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q46">
         <v>31</v>
@@ -3251,13 +3389,13 @@
         <v>60</v>
       </c>
       <c r="S46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="T46" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="W46" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -3271,22 +3409,25 @@
       <c r="AC46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:29">
+      <c r="AD46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B47" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C47" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O47">
         <v>46</v>
       </c>
       <c r="P47" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q47">
         <v>32</v>
@@ -3295,13 +3436,13 @@
         <v>61</v>
       </c>
       <c r="S47" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="T47" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="W47" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -3315,22 +3456,25 @@
       <c r="AC47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:29">
+      <c r="AD47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B48" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C48" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O48">
         <v>47</v>
       </c>
       <c r="P48" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q48">
         <v>33</v>
@@ -3339,13 +3483,13 @@
         <v>63</v>
       </c>
       <c r="S48" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T48" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="W48" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -3359,22 +3503,25 @@
       <c r="AC48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:29">
+      <c r="AD48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B49" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C49" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O49">
         <v>48</v>
       </c>
       <c r="P49" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q49">
         <v>33</v>
@@ -3383,13 +3530,13 @@
         <v>63</v>
       </c>
       <c r="S49" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T49" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="W49" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -3403,22 +3550,25 @@
       <c r="AC49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:29">
+      <c r="AD49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B50" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C50" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O50">
         <v>49</v>
       </c>
       <c r="P50" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q50">
         <v>33</v>
@@ -3427,13 +3577,13 @@
         <v>63</v>
       </c>
       <c r="S50" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T50" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="W50" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -3447,22 +3597,25 @@
       <c r="AC50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:29">
+      <c r="AD50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B51" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O51">
         <v>50</v>
       </c>
       <c r="P51" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q51">
         <v>33</v>
@@ -3471,13 +3624,13 @@
         <v>63</v>
       </c>
       <c r="S51" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T51" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="W51" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -3491,22 +3644,25 @@
       <c r="AC51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:29">
+      <c r="AD51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B52" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C52" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O52">
         <v>51</v>
       </c>
       <c r="P52" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q52">
         <v>34</v>
@@ -3515,13 +3671,13 @@
         <v>64</v>
       </c>
       <c r="S52" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T52" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="W52" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -3535,22 +3691,25 @@
       <c r="AC52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:29">
+      <c r="AD52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B53" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C53" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O53">
         <v>52</v>
       </c>
       <c r="P53" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q53">
         <v>36</v>
@@ -3559,13 +3718,13 @@
         <v>77</v>
       </c>
       <c r="S53" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="T53" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="W53" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -3579,22 +3738,25 @@
       <c r="AC53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:29">
+      <c r="AD53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B54" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C54" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O54">
         <v>53</v>
       </c>
       <c r="P54" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q54">
         <v>37</v>
@@ -3603,13 +3765,13 @@
         <v>78</v>
       </c>
       <c r="S54" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="T54" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="W54" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -3623,22 +3785,25 @@
       <c r="AC54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:29">
+      <c r="AD54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B55" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C55" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O55">
         <v>54</v>
       </c>
       <c r="P55" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q55">
         <v>37</v>
@@ -3647,13 +3812,13 @@
         <v>78</v>
       </c>
       <c r="S55" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="T55" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="W55" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -3667,22 +3832,25 @@
       <c r="AC55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:29">
+      <c r="AD55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B56" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C56" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O56">
         <v>55</v>
       </c>
       <c r="P56" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q56">
         <v>38</v>
@@ -3691,13 +3859,13 @@
         <v>80</v>
       </c>
       <c r="S56" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="T56" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="W56" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -3711,22 +3879,25 @@
       <c r="AC56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:29">
+      <c r="AD56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30">
       <c r="A57" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B57" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C57" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O57">
         <v>56</v>
       </c>
       <c r="P57" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q57">
         <v>39</v>
@@ -3735,13 +3906,13 @@
         <v>81</v>
       </c>
       <c r="S57" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="T57" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="W57" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -3755,22 +3926,25 @@
       <c r="AC57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:29">
+      <c r="AD57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30">
       <c r="A58" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B58" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C58" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O58">
         <v>57</v>
       </c>
       <c r="P58" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q58">
         <v>39</v>
@@ -3779,13 +3953,13 @@
         <v>81</v>
       </c>
       <c r="S58" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="T58" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="W58" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -3799,22 +3973,25 @@
       <c r="AC58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:29">
+      <c r="AD58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30">
       <c r="A59" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C59" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O59">
         <v>58</v>
       </c>
       <c r="P59" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q59">
         <v>39</v>
@@ -3823,13 +4000,13 @@
         <v>81</v>
       </c>
       <c r="S59" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="T59" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="W59" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -3843,22 +4020,25 @@
       <c r="AC59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:29">
+      <c r="AD59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30">
       <c r="A60" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B60" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C60" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O60">
         <v>59</v>
       </c>
       <c r="P60" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q60">
         <v>41</v>
@@ -3867,13 +4047,13 @@
         <v>83</v>
       </c>
       <c r="S60" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="T60" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="W60" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -3887,22 +4067,25 @@
       <c r="AC60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:29">
+      <c r="AD60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30">
       <c r="A61" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B61" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C61" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O61">
         <v>60</v>
       </c>
       <c r="P61" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q61">
         <v>41</v>
@@ -3911,13 +4094,13 @@
         <v>83</v>
       </c>
       <c r="S61" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="T61" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="W61" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -3931,22 +4114,25 @@
       <c r="AC61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:29">
+      <c r="AD61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30">
       <c r="A62" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B62" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C62" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O62">
         <v>61</v>
       </c>
       <c r="P62" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q62">
         <v>42</v>
@@ -3955,13 +4141,13 @@
         <v>84</v>
       </c>
       <c r="S62" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="T62" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="W62" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -3975,22 +4161,25 @@
       <c r="AC62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:29">
+      <c r="AD62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30">
       <c r="A63" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B63" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C63" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O63">
         <v>62</v>
       </c>
       <c r="P63" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q63">
         <v>42</v>
@@ -3999,13 +4188,13 @@
         <v>84</v>
       </c>
       <c r="S63" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="T63" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="W63" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -4019,22 +4208,25 @@
       <c r="AC63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:29">
+      <c r="AD63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30">
       <c r="A64" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B64" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C64" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O64">
         <v>63</v>
       </c>
       <c r="P64" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q64">
         <v>44</v>
@@ -4043,13 +4235,13 @@
         <v>87</v>
       </c>
       <c r="S64" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="T64" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="W64" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -4063,22 +4255,25 @@
       <c r="AC64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:29">
+      <c r="AD64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B65" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C65" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O65">
         <v>64</v>
       </c>
       <c r="P65" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q65">
         <v>45</v>
@@ -4087,13 +4282,13 @@
         <v>88</v>
       </c>
       <c r="S65" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="T65" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="W65" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -4107,22 +4302,25 @@
       <c r="AC65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:29">
+      <c r="AD65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B66" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C66" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O66">
         <v>65</v>
       </c>
       <c r="P66" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q66">
         <v>45</v>
@@ -4131,13 +4329,13 @@
         <v>88</v>
       </c>
       <c r="S66" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="T66" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="W66" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z66">
         <v>0</v>
@@ -4151,22 +4349,25 @@
       <c r="AC66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:29">
+      <c r="AD66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B67" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C67" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O67">
         <v>66</v>
       </c>
       <c r="P67" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q67">
         <v>46</v>
@@ -4175,13 +4376,13 @@
         <v>90</v>
       </c>
       <c r="S67" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="T67" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="W67" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z67">
         <v>0</v>
@@ -4195,22 +4396,25 @@
       <c r="AC67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:29">
+      <c r="AD67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30">
       <c r="A68" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B68" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C68" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O68">
         <v>67</v>
       </c>
       <c r="P68" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q68">
         <v>46</v>
@@ -4219,13 +4423,13 @@
         <v>90</v>
       </c>
       <c r="S68" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="T68" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="W68" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z68">
         <v>0</v>
@@ -4239,22 +4443,25 @@
       <c r="AC68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:29">
+      <c r="AD68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30">
       <c r="A69" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B69" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C69" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O69">
         <v>68</v>
       </c>
       <c r="P69" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q69">
         <v>46</v>
@@ -4263,13 +4470,13 @@
         <v>90</v>
       </c>
       <c r="S69" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="T69" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="W69" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z69">
         <v>0</v>
@@ -4283,22 +4490,25 @@
       <c r="AC69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:29">
+      <c r="AD69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30">
       <c r="A70" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B70" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C70" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O70">
         <v>69</v>
       </c>
       <c r="P70" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q70">
         <v>48</v>
@@ -4307,13 +4517,13 @@
         <v>92</v>
       </c>
       <c r="S70" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="T70" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="W70" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z70">
         <v>0</v>
@@ -4327,22 +4537,25 @@
       <c r="AC70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:29">
+      <c r="AD70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30">
       <c r="A71" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B71" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C71" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O71">
         <v>70</v>
       </c>
       <c r="P71" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q71">
         <v>49</v>
@@ -4351,13 +4564,13 @@
         <v>93</v>
       </c>
       <c r="S71" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="T71" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="W71" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z71">
         <v>0</v>
@@ -4371,22 +4584,25 @@
       <c r="AC71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:29">
+      <c r="AD71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30">
       <c r="A72" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B72" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C72" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O72">
         <v>71</v>
       </c>
       <c r="P72" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q72">
         <v>50</v>
@@ -4395,13 +4611,13 @@
         <v>94</v>
       </c>
       <c r="S72" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="T72" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="W72" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z72">
         <v>0</v>
@@ -4415,22 +4631,25 @@
       <c r="AC72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:29">
+      <c r="AD72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30">
       <c r="A73" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B73" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C73" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O73">
         <v>72</v>
       </c>
       <c r="P73" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q73">
         <v>50</v>
@@ -4439,13 +4658,13 @@
         <v>94</v>
       </c>
       <c r="S73" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="T73" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="W73" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z73">
         <v>0</v>
@@ -4459,22 +4678,25 @@
       <c r="AC73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:29">
+      <c r="AD73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30">
       <c r="A74" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B74" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C74" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O74">
         <v>73</v>
       </c>
       <c r="P74" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q74">
         <v>50</v>
@@ -4483,13 +4705,13 @@
         <v>94</v>
       </c>
       <c r="S74" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="T74" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="W74" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -4503,22 +4725,25 @@
       <c r="AC74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:29">
+      <c r="AD74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30">
       <c r="A75" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B75" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C75" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O75">
         <v>74</v>
       </c>
       <c r="P75" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q75">
         <v>51</v>
@@ -4527,13 +4752,13 @@
         <v>95</v>
       </c>
       <c r="S75" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="T75" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="W75" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z75">
         <v>0</v>
@@ -4547,22 +4772,25 @@
       <c r="AC75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:29">
+      <c r="AD75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30">
       <c r="A76" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B76" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C76" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O76">
         <v>75</v>
       </c>
       <c r="P76" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q76">
         <v>51</v>
@@ -4571,13 +4799,13 @@
         <v>95</v>
       </c>
       <c r="S76" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="T76" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="W76" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z76">
         <v>0</v>
@@ -4591,22 +4819,25 @@
       <c r="AC76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:29">
+      <c r="AD76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30">
       <c r="A77" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B77" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C77" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O77">
         <v>76</v>
       </c>
       <c r="P77" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q77">
         <v>51</v>
@@ -4615,13 +4846,13 @@
         <v>95</v>
       </c>
       <c r="S77" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="T77" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="W77" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -4635,22 +4866,25 @@
       <c r="AC77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:29">
+      <c r="AD77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30">
       <c r="A78" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B78" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C78" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O78">
         <v>77</v>
       </c>
       <c r="P78" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q78">
         <v>52</v>
@@ -4659,13 +4893,13 @@
         <v>96</v>
       </c>
       <c r="S78" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="T78" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="W78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z78">
         <v>0</v>
@@ -4679,22 +4913,25 @@
       <c r="AC78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:29">
+      <c r="AD78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30">
       <c r="A79" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B79" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C79" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O79">
         <v>78</v>
       </c>
       <c r="P79" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q79">
         <v>53</v>
@@ -4703,13 +4940,13 @@
         <v>98</v>
       </c>
       <c r="S79" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="T79" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="W79" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z79">
         <v>0</v>
@@ -4723,22 +4960,25 @@
       <c r="AC79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:29">
+      <c r="AD79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30">
       <c r="A80" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B80" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C80" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O80">
         <v>79</v>
       </c>
       <c r="P80" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q80">
         <v>54</v>
@@ -4747,13 +4987,13 @@
         <v>99</v>
       </c>
       <c r="S80" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="T80" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="W80" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z80">
         <v>0</v>
@@ -4767,22 +5007,25 @@
       <c r="AC80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:29">
+      <c r="AD80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30">
       <c r="A81" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B81" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C81" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O81">
         <v>80</v>
       </c>
       <c r="P81" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q81">
         <v>55</v>
@@ -4791,13 +5034,13 @@
         <v>100</v>
       </c>
       <c r="S81" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="T81" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="W81" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -4811,22 +5054,25 @@
       <c r="AC81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:29">
+      <c r="AD81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30">
       <c r="A82" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B82" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C82" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O82">
         <v>81</v>
       </c>
       <c r="P82" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q82">
         <v>55</v>
@@ -4835,13 +5081,13 @@
         <v>100</v>
       </c>
       <c r="S82" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="T82" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="W82" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z82">
         <v>0</v>
@@ -4855,22 +5101,25 @@
       <c r="AC82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:29">
+      <c r="AD82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30">
       <c r="A83" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B83" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C83" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O83">
         <v>82</v>
       </c>
       <c r="P83" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q83">
         <v>57</v>
@@ -4879,13 +5128,13 @@
         <v>102</v>
       </c>
       <c r="S83" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="T83" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="W83" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z83">
         <v>0</v>
@@ -4899,22 +5148,25 @@
       <c r="AC83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:29">
+      <c r="AD83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30">
       <c r="A84" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B84" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C84" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O84">
         <v>83</v>
       </c>
       <c r="P84" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q84">
         <v>59</v>
@@ -4923,13 +5175,13 @@
         <v>104</v>
       </c>
       <c r="S84" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="T84" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="W84" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z84">
         <v>0</v>
@@ -4943,22 +5195,25 @@
       <c r="AC84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:29">
+      <c r="AD84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30">
       <c r="A85" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B85" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C85" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O85">
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q85">
         <v>60</v>
@@ -4967,13 +5222,13 @@
         <v>105</v>
       </c>
       <c r="S85" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="T85" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="W85" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z85">
         <v>0</v>
@@ -4987,22 +5242,25 @@
       <c r="AC85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:29">
+      <c r="AD85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30">
       <c r="A86" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B86" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C86" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O86">
         <v>85</v>
       </c>
       <c r="P86" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q86">
         <v>61</v>
@@ -5011,13 +5269,13 @@
         <v>106</v>
       </c>
       <c r="S86" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="T86" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="W86" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z86">
         <v>0</v>
@@ -5031,22 +5289,25 @@
       <c r="AC86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:29">
+      <c r="AD86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30">
       <c r="A87" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B87" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C87" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O87">
         <v>86</v>
       </c>
       <c r="P87" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q87">
         <v>64</v>
@@ -5055,13 +5316,13 @@
         <v>111</v>
       </c>
       <c r="S87" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="T87" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="W87" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z87">
         <v>0</v>
@@ -5075,22 +5336,25 @@
       <c r="AC87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:29">
+      <c r="AD87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30">
       <c r="A88" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B88" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C88" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O88">
         <v>87</v>
       </c>
       <c r="P88" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q88">
         <v>67</v>
@@ -5099,13 +5363,13 @@
         <v>115</v>
       </c>
       <c r="S88" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="T88" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="W88" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z88">
         <v>0</v>
@@ -5119,22 +5383,25 @@
       <c r="AC88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:29">
+      <c r="AD88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30">
       <c r="A89" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B89" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C89" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O89">
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q89">
         <v>70</v>
@@ -5143,13 +5410,13 @@
         <v>119</v>
       </c>
       <c r="S89" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="T89" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W89" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z89">
         <v>0</v>
@@ -5163,22 +5430,25 @@
       <c r="AC89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:29">
+      <c r="AD89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30">
       <c r="A90" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B90" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C90" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O90">
         <v>89</v>
       </c>
       <c r="P90" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q90">
         <v>70</v>
@@ -5187,13 +5457,13 @@
         <v>119</v>
       </c>
       <c r="S90" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="T90" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W90" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z90">
         <v>0</v>
@@ -5207,22 +5477,25 @@
       <c r="AC90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:29">
+      <c r="AD90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30">
       <c r="A91" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B91" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C91" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O91">
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q91">
         <v>70</v>
@@ -5231,13 +5504,13 @@
         <v>119</v>
       </c>
       <c r="S91" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="T91" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W91" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z91">
         <v>0</v>
@@ -5251,22 +5524,25 @@
       <c r="AC91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:29">
+      <c r="AD91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30">
       <c r="A92" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B92" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C92" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O92">
         <v>91</v>
       </c>
       <c r="P92" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q92">
         <v>70</v>
@@ -5275,13 +5551,13 @@
         <v>119</v>
       </c>
       <c r="S92" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="T92" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W92" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z92">
         <v>0</v>
@@ -5295,22 +5571,25 @@
       <c r="AC92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:29">
+      <c r="AD92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30">
       <c r="A93" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B93" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C93" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O93">
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q93">
         <v>70</v>
@@ -5319,13 +5598,13 @@
         <v>119</v>
       </c>
       <c r="S93" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="T93" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W93" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -5339,22 +5618,25 @@
       <c r="AC93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:29">
+      <c r="AD93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30">
       <c r="A94" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B94" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C94" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O94">
         <v>93</v>
       </c>
       <c r="P94" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q94">
         <v>70</v>
@@ -5363,13 +5645,13 @@
         <v>119</v>
       </c>
       <c r="S94" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="T94" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W94" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z94">
         <v>0</v>
@@ -5383,22 +5665,25 @@
       <c r="AC94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:29">
+      <c r="AD94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30">
       <c r="A95" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B95" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C95" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O95">
         <v>94</v>
       </c>
       <c r="P95" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q95">
         <v>70</v>
@@ -5407,13 +5692,13 @@
         <v>119</v>
       </c>
       <c r="S95" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="T95" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W95" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z95">
         <v>0</v>
@@ -5427,22 +5712,25 @@
       <c r="AC95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:29">
+      <c r="AD95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30">
       <c r="A96" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B96" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C96" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O96">
         <v>95</v>
       </c>
       <c r="P96" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q96">
         <v>70</v>
@@ -5451,13 +5739,13 @@
         <v>119</v>
       </c>
       <c r="S96" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="T96" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W96" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -5471,22 +5759,25 @@
       <c r="AC96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:29">
+      <c r="AD96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30">
       <c r="A97" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B97" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C97" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O97">
         <v>96</v>
       </c>
       <c r="P97" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q97">
         <v>70</v>
@@ -5495,13 +5786,13 @@
         <v>119</v>
       </c>
       <c r="S97" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="T97" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="W97" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z97">
         <v>0</v>
@@ -5513,6 +5804,9 @@
         <v>0</v>
       </c>
       <c r="AC97">
+        <v>0</v>
+      </c>
+      <c r="AD97">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p26.xlsx
+++ b/files/separadas/repeat_p26.xlsx
@@ -3727,19 +3727,19 @@
         <v>273</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA53">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AC53">
-        <v>0</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="AD53">
-        <v>0</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="54" spans="1:30">

--- a/files/separadas/repeat_p26.xlsx
+++ b/files/separadas/repeat_p26.xlsx
@@ -2202,19 +2202,19 @@
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="24">

--- a/files/separadas/repeat_p26.xlsx
+++ b/files/separadas/repeat_p26.xlsx
@@ -814,7 +814,7 @@
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +876,7 @@
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7">
@@ -2798,7 +2798,7 @@
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="38">
@@ -2860,7 +2860,7 @@
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="39">
@@ -2922,7 +2922,7 @@
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="40">
@@ -2984,7 +2984,7 @@
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="41">
@@ -5464,7 +5464,7 @@
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="81">
@@ -5712,7 +5712,7 @@
       <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="85">
@@ -5836,7 +5836,7 @@
       <c r="X86" t="inlineStr"/>
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="87">
